--- a/inst/loadExample.xlsx
+++ b/inst/loadExample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="555" windowWidth="17895" windowHeight="7365" activeTab="4"/>
+    <workbookView xWindow="630" yWindow="555" windowWidth="17895" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Heights and Widths" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Some More Random Numbers</t>
   </si>
@@ -330,6 +330,15 @@
   </si>
   <si>
     <t>TotalSales</t>
+  </si>
+  <si>
+    <t>merges -&gt;</t>
+  </si>
+  <si>
+    <t>HyperLink -&gt;</t>
+  </si>
+  <si>
+    <t>http://cran.r-project.org/</t>
   </si>
 </sst>
 </file>
@@ -341,7 +350,7 @@
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -459,8 +468,16 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,12 +529,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,10 +717,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -828,16 +840,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="10" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -856,14 +858,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1012,94 +1026,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-1.2005691583894424</c:v>
+                  <c:v>9.6431458692483915E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2.2561982749687921</c:v>
+                  <c:v>0.84422440654607145</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0693311432463108</c:v>
+                  <c:v>-0.18511820778663166</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.6680978093155282</c:v>
+                  <c:v>-2.3402558711290427</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.47292669573906088</c:v>
+                  <c:v>-0.57025793151964643</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76674145877944377</c:v>
+                  <c:v>-0.95337537833018382</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.19752549726725349</c:v>
+                  <c:v>1.6761834119742376</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.84803870903136891</c:v>
+                  <c:v>0.41962809033921822</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.4582770056300023</c:v>
+                  <c:v>-1.1555461732531676</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1291713166662345</c:v>
+                  <c:v>1.0324502986536035</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.1637362136425444E-2</c:v>
+                  <c:v>-2.8545901234486373E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1.1191184429683387</c:v>
+                  <c:v>0.48755124380840653</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.78230901232468408</c:v>
+                  <c:v>0.18241007590871416</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.41675290567086465</c:v>
+                  <c:v>-0.40645151130854779</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0919255858445771</c:v>
+                  <c:v>-1.8311490842109572</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.6674608706778902</c:v>
+                  <c:v>-0.96215492498844646</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.86916050211402363</c:v>
+                  <c:v>1.3995494340984942</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-7.783673881596867E-2</c:v>
+                  <c:v>1.429627205651838</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.53470006974012751</c:v>
+                  <c:v>0.46732579014128267</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-1.7741037174766565</c:v>
+                  <c:v>0.53704066915857618</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.70618211300885148</c:v>
+                  <c:v>-2.1793919844635887</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.20545967803557</c:v>
+                  <c:v>1.1105943031094816</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-1.2335298649046387</c:v>
+                  <c:v>3.0122479941224252</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.97624349974897351</c:v>
+                  <c:v>-1.2253461744283378</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.2338137617261604</c:v>
+                  <c:v>-0.95486093194605204</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.6634345030051914</c:v>
+                  <c:v>-0.25488180096545371</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.36816322060375262</c:v>
+                  <c:v>-0.87952993905620658</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.63299688583835878</c:v>
+                  <c:v>1.0472122627582323</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.26409934132161672</c:v>
+                  <c:v>0.14803438285067375</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.1555332315575352E-2</c:v>
+                  <c:v>5.1002787723627714E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1114,11 +1128,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="71845376"/>
-        <c:axId val="71846912"/>
+        <c:axId val="82859136"/>
+        <c:axId val="82860672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="71845376"/>
+        <c:axId val="82859136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1128,12 +1142,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71846912"/>
+        <c:crossAx val="82860672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71846912"/>
+        <c:axId val="82860672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1144,7 +1158,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71845376"/>
+        <c:crossAx val="82859136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1243,8 +1257,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69887488"/>
-        <c:axId val="69889024"/>
+        <c:axId val="82949248"/>
+        <c:axId val="82950784"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1306,11 +1320,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="69900544"/>
-        <c:axId val="69899008"/>
+        <c:axId val="82954112"/>
+        <c:axId val="82952576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69887488"/>
+        <c:axId val="82949248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,7 +1333,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69889024"/>
+        <c:crossAx val="82950784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1327,7 +1341,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69889024"/>
+        <c:axId val="82950784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1338,12 +1352,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69887488"/>
+        <c:crossAx val="82949248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69899008"/>
+        <c:axId val="82952576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1353,12 +1367,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69900544"/>
+        <c:crossAx val="82954112"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="69900544"/>
+        <c:axId val="82954112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1367,7 +1381,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69899008"/>
+        <c:crossAx val="82952576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1547,6 +1561,94 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4371975" y="962025"/>
+          <a:ext cx="2889504" cy="3243072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>555879</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>14097</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4371975" y="962025"/>
+          <a:ext cx="2889504" cy="3243072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>555879</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>14097</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1937,9 +2039,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D2:F38"/>
+  <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1951,69 +2053,83 @@
     <col min="6" max="6" width="36.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="5:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="8">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="5:5" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="5:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="5:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="5:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-    </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D31" s="87"/>
-      <c r="E31" s="90"/>
-      <c r="F31" s="89"/>
-    </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D32" s="87"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="89"/>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="87"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="89"/>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D34" s="87"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="89"/>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D35" s="87"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="89"/>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D36" s="87"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="89"/>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D37" s="87"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="89"/>
-    </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
+    <row r="5" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="83"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="85"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="83"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="85"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="83"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="85"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="83"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="85"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="83"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="85"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="83"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="85"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D22" s="83"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="85"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="94" t="s">
+        <v>106</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:D37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="F31:F37"/>
-    <mergeCell ref="E31:E37"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:D22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="E16:E22"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D26" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2026,7 +2142,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2037,19 +2153,19 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
@@ -6148,15 +6264,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X36"/>
+  <dimension ref="A1:AV88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="C1" s="1"/>
       <c r="E1" s="1"/>
@@ -6169,8 +6285,20 @@
       <c r="S1" s="1"/>
       <c r="U1" s="1"/>
       <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AU1" s="1"/>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
@@ -6183,8 +6311,20 @@
       <c r="T2" s="2"/>
       <c r="V2" s="2"/>
       <c r="X2" s="2"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AV2" s="2"/>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="C3" s="1"/>
       <c r="E3" s="1"/>
@@ -6197,8 +6337,20 @@
       <c r="S3" s="1"/>
       <c r="U3" s="1"/>
       <c r="W3" s="1"/>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AU3" s="1"/>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
       <c r="F4" s="2"/>
@@ -6211,8 +6363,20 @@
       <c r="T4" s="2"/>
       <c r="V4" s="2"/>
       <c r="X4" s="2"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AV4" s="2"/>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="C5" s="1"/>
       <c r="E5" s="1"/>
@@ -6225,8 +6389,20 @@
       <c r="S5" s="1"/>
       <c r="U5" s="1"/>
       <c r="W5" s="1"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AU5" s="1"/>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
@@ -6239,8 +6415,20 @@
       <c r="T6" s="2"/>
       <c r="V6" s="2"/>
       <c r="X6" s="2"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AV6" s="2"/>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="C7" s="1"/>
       <c r="E7" s="1"/>
@@ -6253,8 +6441,20 @@
       <c r="S7" s="1"/>
       <c r="U7" s="1"/>
       <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AU7" s="1"/>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="D8" s="2"/>
       <c r="F8" s="2"/>
@@ -6267,8 +6467,20 @@
       <c r="T8" s="2"/>
       <c r="V8" s="2"/>
       <c r="X8" s="2"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AV8" s="2"/>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="C9" s="1"/>
       <c r="E9" s="1"/>
@@ -6281,8 +6493,20 @@
       <c r="S9" s="1"/>
       <c r="U9" s="1"/>
       <c r="W9" s="1"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AU9" s="1"/>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="F10" s="2"/>
@@ -6295,8 +6519,20 @@
       <c r="T10" s="2"/>
       <c r="V10" s="2"/>
       <c r="X10" s="2"/>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AV10" s="2"/>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
@@ -6309,8 +6545,20 @@
       <c r="S11" s="1"/>
       <c r="U11" s="1"/>
       <c r="W11" s="1"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AU11" s="1"/>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="F12" s="2"/>
@@ -6323,8 +6571,20 @@
       <c r="T12" s="2"/>
       <c r="V12" s="2"/>
       <c r="X12" s="2"/>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AV12" s="2"/>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="C13" s="1"/>
       <c r="E13" s="1"/>
@@ -6337,8 +6597,20 @@
       <c r="S13" s="1"/>
       <c r="U13" s="1"/>
       <c r="W13" s="1"/>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AU13" s="1"/>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="F14" s="2"/>
@@ -6351,8 +6623,20 @@
       <c r="T14" s="2"/>
       <c r="V14" s="2"/>
       <c r="X14" s="2"/>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AV14" s="2"/>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="C15" s="1"/>
       <c r="E15" s="1"/>
@@ -6365,8 +6649,20 @@
       <c r="S15" s="1"/>
       <c r="U15" s="1"/>
       <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AU15" s="1"/>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
       <c r="F16" s="2"/>
@@ -6379,8 +6675,20 @@
       <c r="T16" s="2"/>
       <c r="V16" s="2"/>
       <c r="X16" s="2"/>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AV16" s="2"/>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="C17" s="1"/>
       <c r="E17" s="1"/>
@@ -6393,8 +6701,20 @@
       <c r="S17" s="1"/>
       <c r="U17" s="1"/>
       <c r="W17" s="1"/>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AU17" s="1"/>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="D18" s="2"/>
       <c r="F18" s="2"/>
@@ -6407,8 +6727,20 @@
       <c r="T18" s="2"/>
       <c r="V18" s="2"/>
       <c r="X18" s="2"/>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AV18" s="2"/>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
       <c r="E19" s="1"/>
@@ -6421,8 +6753,20 @@
       <c r="S19" s="1"/>
       <c r="U19" s="1"/>
       <c r="W19" s="1"/>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AU19" s="1"/>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="D20" s="2"/>
       <c r="F20" s="2"/>
@@ -6435,8 +6779,20 @@
       <c r="T20" s="2"/>
       <c r="V20" s="2"/>
       <c r="X20" s="2"/>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AV20" s="2"/>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
       <c r="E21" s="1"/>
@@ -6449,8 +6805,20 @@
       <c r="S21" s="1"/>
       <c r="U21" s="1"/>
       <c r="W21" s="1"/>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AU21" s="1"/>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="D22" s="2"/>
       <c r="F22" s="2"/>
@@ -6463,8 +6831,20 @@
       <c r="T22" s="2"/>
       <c r="V22" s="2"/>
       <c r="X22" s="2"/>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AV22" s="2"/>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="C23" s="1"/>
       <c r="E23" s="1"/>
@@ -6477,8 +6857,20 @@
       <c r="S23" s="1"/>
       <c r="U23" s="1"/>
       <c r="W23" s="1"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AO23" s="1"/>
+      <c r="AQ23" s="1"/>
+      <c r="AS23" s="1"/>
+      <c r="AU23" s="1"/>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="D24" s="2"/>
       <c r="F24" s="2"/>
@@ -6491,8 +6883,20 @@
       <c r="T24" s="2"/>
       <c r="V24" s="2"/>
       <c r="X24" s="2"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AT24" s="2"/>
+      <c r="AV24" s="2"/>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="C25" s="1"/>
       <c r="E25" s="1"/>
@@ -6505,8 +6909,20 @@
       <c r="S25" s="1"/>
       <c r="U25" s="1"/>
       <c r="W25" s="1"/>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AU25" s="1"/>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="D26" s="2"/>
       <c r="F26" s="2"/>
@@ -6519,8 +6935,20 @@
       <c r="T26" s="2"/>
       <c r="V26" s="2"/>
       <c r="X26" s="2"/>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AR26" s="2"/>
+      <c r="AT26" s="2"/>
+      <c r="AV26" s="2"/>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="C27" s="1"/>
       <c r="E27" s="1"/>
@@ -6533,8 +6961,20 @@
       <c r="S27" s="1"/>
       <c r="U27" s="1"/>
       <c r="W27" s="1"/>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AU27" s="1"/>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="D28" s="2"/>
       <c r="F28" s="2"/>
@@ -6547,8 +6987,20 @@
       <c r="T28" s="2"/>
       <c r="V28" s="2"/>
       <c r="X28" s="2"/>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AV28" s="2"/>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="C29" s="1"/>
       <c r="E29" s="1"/>
@@ -6561,8 +7013,20 @@
       <c r="S29" s="1"/>
       <c r="U29" s="1"/>
       <c r="W29" s="1"/>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AU29" s="1"/>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="D30" s="2"/>
       <c r="F30" s="2"/>
@@ -6575,8 +7039,20 @@
       <c r="T30" s="2"/>
       <c r="V30" s="2"/>
       <c r="X30" s="2"/>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AP30" s="2"/>
+      <c r="AR30" s="2"/>
+      <c r="AT30" s="2"/>
+      <c r="AV30" s="2"/>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="C31" s="1"/>
       <c r="E31" s="1"/>
@@ -6589,8 +7065,20 @@
       <c r="S31" s="1"/>
       <c r="U31" s="1"/>
       <c r="W31" s="1"/>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AU31" s="1"/>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="D32" s="2"/>
       <c r="F32" s="2"/>
@@ -6603,8 +7091,20 @@
       <c r="T32" s="2"/>
       <c r="V32" s="2"/>
       <c r="X32" s="2"/>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AL32" s="2"/>
+      <c r="AN32" s="2"/>
+      <c r="AP32" s="2"/>
+      <c r="AR32" s="2"/>
+      <c r="AT32" s="2"/>
+      <c r="AV32" s="2"/>
+    </row>
+    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="C33" s="1"/>
       <c r="E33" s="1"/>
@@ -6617,8 +7117,20 @@
       <c r="S33" s="1"/>
       <c r="U33" s="1"/>
       <c r="W33" s="1"/>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AU33" s="1"/>
+    </row>
+    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="D34" s="2"/>
       <c r="F34" s="2"/>
@@ -6631,8 +7143,20 @@
       <c r="T34" s="2"/>
       <c r="V34" s="2"/>
       <c r="X34" s="2"/>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Z34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AP34" s="2"/>
+      <c r="AR34" s="2"/>
+      <c r="AT34" s="2"/>
+      <c r="AV34" s="2"/>
+    </row>
+    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="C35" s="1"/>
       <c r="E35" s="1"/>
@@ -6645,8 +7169,20 @@
       <c r="S35" s="1"/>
       <c r="U35" s="1"/>
       <c r="W35" s="1"/>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AU35" s="1"/>
+    </row>
+    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="D36" s="2"/>
       <c r="F36" s="2"/>
@@ -6659,6 +7195,1370 @@
       <c r="T36" s="2"/>
       <c r="V36" s="2"/>
       <c r="X36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AJ36" s="2"/>
+      <c r="AL36" s="2"/>
+      <c r="AN36" s="2"/>
+      <c r="AP36" s="2"/>
+      <c r="AR36" s="2"/>
+      <c r="AT36" s="2"/>
+      <c r="AV36" s="2"/>
+    </row>
+    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AU37" s="1"/>
+    </row>
+    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AJ38" s="2"/>
+      <c r="AL38" s="2"/>
+      <c r="AN38" s="2"/>
+      <c r="AP38" s="2"/>
+      <c r="AR38" s="2"/>
+      <c r="AT38" s="2"/>
+      <c r="AV38" s="2"/>
+    </row>
+    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AU39" s="1"/>
+    </row>
+    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AJ40" s="2"/>
+      <c r="AL40" s="2"/>
+      <c r="AN40" s="2"/>
+      <c r="AP40" s="2"/>
+      <c r="AR40" s="2"/>
+      <c r="AT40" s="2"/>
+      <c r="AV40" s="2"/>
+    </row>
+    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AU41" s="1"/>
+    </row>
+    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AH42" s="2"/>
+      <c r="AJ42" s="2"/>
+      <c r="AL42" s="2"/>
+      <c r="AN42" s="2"/>
+      <c r="AP42" s="2"/>
+      <c r="AR42" s="2"/>
+      <c r="AT42" s="2"/>
+      <c r="AV42" s="2"/>
+    </row>
+    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AO43" s="1"/>
+      <c r="AQ43" s="1"/>
+      <c r="AS43" s="1"/>
+      <c r="AU43" s="1"/>
+    </row>
+    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AJ44" s="2"/>
+      <c r="AL44" s="2"/>
+      <c r="AN44" s="2"/>
+      <c r="AP44" s="2"/>
+      <c r="AR44" s="2"/>
+      <c r="AT44" s="2"/>
+      <c r="AV44" s="2"/>
+    </row>
+    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AM45" s="1"/>
+      <c r="AO45" s="1"/>
+      <c r="AQ45" s="1"/>
+      <c r="AS45" s="1"/>
+      <c r="AU45" s="1"/>
+    </row>
+    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AF46" s="2"/>
+      <c r="AH46" s="2"/>
+      <c r="AJ46" s="2"/>
+      <c r="AL46" s="2"/>
+      <c r="AN46" s="2"/>
+      <c r="AP46" s="2"/>
+      <c r="AR46" s="2"/>
+      <c r="AT46" s="2"/>
+      <c r="AV46" s="2"/>
+    </row>
+    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AK47" s="1"/>
+      <c r="AM47" s="1"/>
+      <c r="AO47" s="1"/>
+      <c r="AQ47" s="1"/>
+      <c r="AS47" s="1"/>
+      <c r="AU47" s="1"/>
+    </row>
+    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AD48" s="2"/>
+      <c r="AF48" s="2"/>
+      <c r="AH48" s="2"/>
+      <c r="AJ48" s="2"/>
+      <c r="AL48" s="2"/>
+      <c r="AN48" s="2"/>
+      <c r="AP48" s="2"/>
+      <c r="AR48" s="2"/>
+      <c r="AT48" s="2"/>
+      <c r="AV48" s="2"/>
+    </row>
+    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="AA49" s="1"/>
+      <c r="AC49" s="1"/>
+      <c r="AE49" s="1"/>
+      <c r="AG49" s="1"/>
+      <c r="AI49" s="1"/>
+      <c r="AK49" s="1"/>
+      <c r="AM49" s="1"/>
+      <c r="AO49" s="1"/>
+      <c r="AQ49" s="1"/>
+      <c r="AS49" s="1"/>
+      <c r="AU49" s="1"/>
+    </row>
+    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AD50" s="2"/>
+      <c r="AF50" s="2"/>
+      <c r="AH50" s="2"/>
+      <c r="AJ50" s="2"/>
+      <c r="AL50" s="2"/>
+      <c r="AN50" s="2"/>
+      <c r="AP50" s="2"/>
+      <c r="AR50" s="2"/>
+      <c r="AT50" s="2"/>
+      <c r="AV50" s="2"/>
+    </row>
+    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="AA51" s="1"/>
+      <c r="AC51" s="1"/>
+      <c r="AE51" s="1"/>
+      <c r="AG51" s="1"/>
+      <c r="AI51" s="1"/>
+      <c r="AK51" s="1"/>
+      <c r="AM51" s="1"/>
+      <c r="AO51" s="1"/>
+      <c r="AQ51" s="1"/>
+      <c r="AS51" s="1"/>
+      <c r="AU51" s="1"/>
+    </row>
+    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AD52" s="2"/>
+      <c r="AF52" s="2"/>
+      <c r="AH52" s="2"/>
+      <c r="AJ52" s="2"/>
+      <c r="AL52" s="2"/>
+      <c r="AN52" s="2"/>
+      <c r="AP52" s="2"/>
+      <c r="AR52" s="2"/>
+      <c r="AT52" s="2"/>
+      <c r="AV52" s="2"/>
+    </row>
+    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="AA53" s="1"/>
+      <c r="AC53" s="1"/>
+      <c r="AE53" s="1"/>
+      <c r="AG53" s="1"/>
+      <c r="AI53" s="1"/>
+      <c r="AK53" s="1"/>
+      <c r="AM53" s="1"/>
+      <c r="AO53" s="1"/>
+      <c r="AQ53" s="1"/>
+      <c r="AS53" s="1"/>
+      <c r="AU53" s="1"/>
+    </row>
+    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AD54" s="2"/>
+      <c r="AF54" s="2"/>
+      <c r="AH54" s="2"/>
+      <c r="AJ54" s="2"/>
+      <c r="AL54" s="2"/>
+      <c r="AN54" s="2"/>
+      <c r="AP54" s="2"/>
+      <c r="AR54" s="2"/>
+      <c r="AT54" s="2"/>
+      <c r="AV54" s="2"/>
+    </row>
+    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="W55" s="1"/>
+      <c r="Y55" s="1"/>
+      <c r="AA55" s="1"/>
+      <c r="AC55" s="1"/>
+      <c r="AE55" s="1"/>
+      <c r="AG55" s="1"/>
+      <c r="AI55" s="1"/>
+      <c r="AK55" s="1"/>
+      <c r="AM55" s="1"/>
+      <c r="AO55" s="1"/>
+      <c r="AQ55" s="1"/>
+      <c r="AS55" s="1"/>
+      <c r="AU55" s="1"/>
+    </row>
+    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AB56" s="2"/>
+      <c r="AD56" s="2"/>
+      <c r="AF56" s="2"/>
+      <c r="AH56" s="2"/>
+      <c r="AJ56" s="2"/>
+      <c r="AL56" s="2"/>
+      <c r="AN56" s="2"/>
+      <c r="AP56" s="2"/>
+      <c r="AR56" s="2"/>
+      <c r="AT56" s="2"/>
+      <c r="AV56" s="2"/>
+    </row>
+    <row r="57" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="W57" s="1"/>
+      <c r="Y57" s="1"/>
+      <c r="AA57" s="1"/>
+      <c r="AC57" s="1"/>
+      <c r="AE57" s="1"/>
+      <c r="AG57" s="1"/>
+      <c r="AI57" s="1"/>
+      <c r="AK57" s="1"/>
+      <c r="AM57" s="1"/>
+      <c r="AO57" s="1"/>
+      <c r="AQ57" s="1"/>
+      <c r="AS57" s="1"/>
+      <c r="AU57" s="1"/>
+    </row>
+    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Z58" s="2"/>
+      <c r="AB58" s="2"/>
+      <c r="AD58" s="2"/>
+      <c r="AF58" s="2"/>
+      <c r="AH58" s="2"/>
+      <c r="AJ58" s="2"/>
+      <c r="AL58" s="2"/>
+      <c r="AN58" s="2"/>
+      <c r="AP58" s="2"/>
+      <c r="AR58" s="2"/>
+      <c r="AT58" s="2"/>
+      <c r="AV58" s="2"/>
+    </row>
+    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AG59" s="1"/>
+      <c r="AI59" s="1"/>
+      <c r="AK59" s="1"/>
+      <c r="AM59" s="1"/>
+      <c r="AO59" s="1"/>
+      <c r="AQ59" s="1"/>
+      <c r="AS59" s="1"/>
+      <c r="AU59" s="1"/>
+    </row>
+    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Z60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AD60" s="2"/>
+      <c r="AF60" s="2"/>
+      <c r="AH60" s="2"/>
+      <c r="AJ60" s="2"/>
+      <c r="AL60" s="2"/>
+      <c r="AN60" s="2"/>
+      <c r="AP60" s="2"/>
+      <c r="AR60" s="2"/>
+      <c r="AT60" s="2"/>
+      <c r="AV60" s="2"/>
+    </row>
+    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="W61" s="1"/>
+      <c r="Y61" s="1"/>
+      <c r="AA61" s="1"/>
+      <c r="AC61" s="1"/>
+      <c r="AE61" s="1"/>
+      <c r="AG61" s="1"/>
+      <c r="AI61" s="1"/>
+      <c r="AK61" s="1"/>
+      <c r="AM61" s="1"/>
+      <c r="AO61" s="1"/>
+      <c r="AQ61" s="1"/>
+      <c r="AS61" s="1"/>
+      <c r="AU61" s="1"/>
+    </row>
+    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Z62" s="2"/>
+      <c r="AB62" s="2"/>
+      <c r="AD62" s="2"/>
+      <c r="AF62" s="2"/>
+      <c r="AH62" s="2"/>
+      <c r="AJ62" s="2"/>
+      <c r="AL62" s="2"/>
+      <c r="AN62" s="2"/>
+      <c r="AP62" s="2"/>
+      <c r="AR62" s="2"/>
+      <c r="AT62" s="2"/>
+      <c r="AV62" s="2"/>
+    </row>
+    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="Y63" s="1"/>
+      <c r="AA63" s="1"/>
+      <c r="AC63" s="1"/>
+      <c r="AE63" s="1"/>
+      <c r="AG63" s="1"/>
+      <c r="AI63" s="1"/>
+      <c r="AK63" s="1"/>
+      <c r="AM63" s="1"/>
+      <c r="AO63" s="1"/>
+      <c r="AQ63" s="1"/>
+      <c r="AS63" s="1"/>
+      <c r="AU63" s="1"/>
+    </row>
+    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Z64" s="2"/>
+      <c r="AB64" s="2"/>
+      <c r="AD64" s="2"/>
+      <c r="AF64" s="2"/>
+      <c r="AH64" s="2"/>
+      <c r="AJ64" s="2"/>
+      <c r="AL64" s="2"/>
+      <c r="AN64" s="2"/>
+      <c r="AP64" s="2"/>
+      <c r="AR64" s="2"/>
+      <c r="AT64" s="2"/>
+      <c r="AV64" s="2"/>
+    </row>
+    <row r="65" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="Y65" s="1"/>
+      <c r="AA65" s="1"/>
+      <c r="AC65" s="1"/>
+      <c r="AE65" s="1"/>
+      <c r="AG65" s="1"/>
+      <c r="AI65" s="1"/>
+      <c r="AK65" s="1"/>
+      <c r="AM65" s="1"/>
+      <c r="AO65" s="1"/>
+      <c r="AQ65" s="1"/>
+      <c r="AS65" s="1"/>
+      <c r="AU65" s="1"/>
+    </row>
+    <row r="66" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Z66" s="2"/>
+      <c r="AB66" s="2"/>
+      <c r="AD66" s="2"/>
+      <c r="AF66" s="2"/>
+      <c r="AH66" s="2"/>
+      <c r="AJ66" s="2"/>
+      <c r="AL66" s="2"/>
+      <c r="AN66" s="2"/>
+      <c r="AP66" s="2"/>
+      <c r="AR66" s="2"/>
+      <c r="AT66" s="2"/>
+      <c r="AV66" s="2"/>
+    </row>
+    <row r="67" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="Y67" s="1"/>
+      <c r="AA67" s="1"/>
+      <c r="AC67" s="1"/>
+      <c r="AE67" s="1"/>
+      <c r="AG67" s="1"/>
+      <c r="AI67" s="1"/>
+      <c r="AK67" s="1"/>
+      <c r="AM67" s="1"/>
+      <c r="AO67" s="1"/>
+      <c r="AQ67" s="1"/>
+      <c r="AS67" s="1"/>
+      <c r="AU67" s="1"/>
+    </row>
+    <row r="68" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Z68" s="2"/>
+      <c r="AB68" s="2"/>
+      <c r="AD68" s="2"/>
+      <c r="AF68" s="2"/>
+      <c r="AH68" s="2"/>
+      <c r="AJ68" s="2"/>
+      <c r="AL68" s="2"/>
+      <c r="AN68" s="2"/>
+      <c r="AP68" s="2"/>
+      <c r="AR68" s="2"/>
+      <c r="AT68" s="2"/>
+      <c r="AV68" s="2"/>
+    </row>
+    <row r="69" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="Y69" s="1"/>
+      <c r="AA69" s="1"/>
+      <c r="AC69" s="1"/>
+      <c r="AE69" s="1"/>
+      <c r="AG69" s="1"/>
+      <c r="AI69" s="1"/>
+      <c r="AK69" s="1"/>
+      <c r="AM69" s="1"/>
+      <c r="AO69" s="1"/>
+      <c r="AQ69" s="1"/>
+      <c r="AS69" s="1"/>
+      <c r="AU69" s="1"/>
+    </row>
+    <row r="70" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Z70" s="2"/>
+      <c r="AB70" s="2"/>
+      <c r="AD70" s="2"/>
+      <c r="AF70" s="2"/>
+      <c r="AH70" s="2"/>
+      <c r="AJ70" s="2"/>
+      <c r="AL70" s="2"/>
+      <c r="AN70" s="2"/>
+      <c r="AP70" s="2"/>
+      <c r="AR70" s="2"/>
+      <c r="AT70" s="2"/>
+      <c r="AV70" s="2"/>
+    </row>
+    <row r="71" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="W71" s="1"/>
+      <c r="Y71" s="1"/>
+      <c r="AA71" s="1"/>
+      <c r="AC71" s="1"/>
+      <c r="AE71" s="1"/>
+      <c r="AG71" s="1"/>
+      <c r="AI71" s="1"/>
+      <c r="AK71" s="1"/>
+      <c r="AM71" s="1"/>
+      <c r="AO71" s="1"/>
+      <c r="AQ71" s="1"/>
+      <c r="AS71" s="1"/>
+      <c r="AU71" s="1"/>
+    </row>
+    <row r="72" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Z72" s="2"/>
+      <c r="AB72" s="2"/>
+      <c r="AD72" s="2"/>
+      <c r="AF72" s="2"/>
+      <c r="AH72" s="2"/>
+      <c r="AJ72" s="2"/>
+      <c r="AL72" s="2"/>
+      <c r="AN72" s="2"/>
+      <c r="AP72" s="2"/>
+      <c r="AR72" s="2"/>
+      <c r="AT72" s="2"/>
+      <c r="AV72" s="2"/>
+    </row>
+    <row r="73" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="AA73" s="1"/>
+      <c r="AC73" s="1"/>
+      <c r="AE73" s="1"/>
+      <c r="AG73" s="1"/>
+      <c r="AI73" s="1"/>
+      <c r="AK73" s="1"/>
+      <c r="AM73" s="1"/>
+      <c r="AO73" s="1"/>
+      <c r="AQ73" s="1"/>
+      <c r="AS73" s="1"/>
+      <c r="AU73" s="1"/>
+    </row>
+    <row r="74" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="X74" s="2"/>
+      <c r="Z74" s="2"/>
+      <c r="AB74" s="2"/>
+      <c r="AD74" s="2"/>
+      <c r="AF74" s="2"/>
+      <c r="AH74" s="2"/>
+      <c r="AJ74" s="2"/>
+      <c r="AL74" s="2"/>
+      <c r="AN74" s="2"/>
+      <c r="AP74" s="2"/>
+      <c r="AR74" s="2"/>
+      <c r="AT74" s="2"/>
+      <c r="AV74" s="2"/>
+    </row>
+    <row r="75" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="U75" s="1"/>
+      <c r="W75" s="1"/>
+      <c r="Y75" s="1"/>
+      <c r="AA75" s="1"/>
+      <c r="AC75" s="1"/>
+      <c r="AE75" s="1"/>
+      <c r="AG75" s="1"/>
+      <c r="AI75" s="1"/>
+      <c r="AK75" s="1"/>
+      <c r="AM75" s="1"/>
+      <c r="AO75" s="1"/>
+      <c r="AQ75" s="1"/>
+      <c r="AS75" s="1"/>
+      <c r="AU75" s="1"/>
+    </row>
+    <row r="76" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Z76" s="2"/>
+      <c r="AB76" s="2"/>
+      <c r="AD76" s="2"/>
+      <c r="AF76" s="2"/>
+      <c r="AH76" s="2"/>
+      <c r="AJ76" s="2"/>
+      <c r="AL76" s="2"/>
+      <c r="AN76" s="2"/>
+      <c r="AP76" s="2"/>
+      <c r="AR76" s="2"/>
+      <c r="AT76" s="2"/>
+      <c r="AV76" s="2"/>
+    </row>
+    <row r="77" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="U77" s="1"/>
+      <c r="W77" s="1"/>
+      <c r="Y77" s="1"/>
+      <c r="AA77" s="1"/>
+      <c r="AC77" s="1"/>
+      <c r="AE77" s="1"/>
+      <c r="AG77" s="1"/>
+      <c r="AI77" s="1"/>
+      <c r="AK77" s="1"/>
+      <c r="AM77" s="1"/>
+      <c r="AO77" s="1"/>
+      <c r="AQ77" s="1"/>
+      <c r="AS77" s="1"/>
+      <c r="AU77" s="1"/>
+    </row>
+    <row r="78" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Z78" s="2"/>
+      <c r="AB78" s="2"/>
+      <c r="AD78" s="2"/>
+      <c r="AF78" s="2"/>
+      <c r="AH78" s="2"/>
+      <c r="AJ78" s="2"/>
+      <c r="AL78" s="2"/>
+      <c r="AN78" s="2"/>
+      <c r="AP78" s="2"/>
+      <c r="AR78" s="2"/>
+      <c r="AT78" s="2"/>
+      <c r="AV78" s="2"/>
+    </row>
+    <row r="79" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AE79" s="1"/>
+      <c r="AG79" s="1"/>
+      <c r="AI79" s="1"/>
+      <c r="AK79" s="1"/>
+      <c r="AM79" s="1"/>
+      <c r="AO79" s="1"/>
+      <c r="AQ79" s="1"/>
+      <c r="AS79" s="1"/>
+      <c r="AU79" s="1"/>
+    </row>
+    <row r="80" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="X80" s="2"/>
+      <c r="Z80" s="2"/>
+      <c r="AB80" s="2"/>
+      <c r="AD80" s="2"/>
+      <c r="AF80" s="2"/>
+      <c r="AH80" s="2"/>
+      <c r="AJ80" s="2"/>
+      <c r="AL80" s="2"/>
+      <c r="AN80" s="2"/>
+      <c r="AP80" s="2"/>
+      <c r="AR80" s="2"/>
+      <c r="AT80" s="2"/>
+      <c r="AV80" s="2"/>
+    </row>
+    <row r="81" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="W81" s="1"/>
+      <c r="Y81" s="1"/>
+      <c r="AA81" s="1"/>
+      <c r="AC81" s="1"/>
+      <c r="AE81" s="1"/>
+      <c r="AG81" s="1"/>
+      <c r="AI81" s="1"/>
+      <c r="AK81" s="1"/>
+      <c r="AM81" s="1"/>
+      <c r="AO81" s="1"/>
+      <c r="AQ81" s="1"/>
+      <c r="AS81" s="1"/>
+      <c r="AU81" s="1"/>
+    </row>
+    <row r="82" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="X82" s="2"/>
+      <c r="Z82" s="2"/>
+      <c r="AB82" s="2"/>
+      <c r="AD82" s="2"/>
+      <c r="AF82" s="2"/>
+      <c r="AH82" s="2"/>
+      <c r="AJ82" s="2"/>
+      <c r="AL82" s="2"/>
+      <c r="AN82" s="2"/>
+      <c r="AP82" s="2"/>
+      <c r="AR82" s="2"/>
+      <c r="AT82" s="2"/>
+      <c r="AV82" s="2"/>
+    </row>
+    <row r="83" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="U83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="Y83" s="1"/>
+      <c r="AA83" s="1"/>
+      <c r="AC83" s="1"/>
+      <c r="AE83" s="1"/>
+      <c r="AG83" s="1"/>
+      <c r="AI83" s="1"/>
+      <c r="AK83" s="1"/>
+      <c r="AM83" s="1"/>
+      <c r="AO83" s="1"/>
+      <c r="AQ83" s="1"/>
+      <c r="AS83" s="1"/>
+      <c r="AU83" s="1"/>
+    </row>
+    <row r="84" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="X84" s="2"/>
+      <c r="Z84" s="2"/>
+      <c r="AB84" s="2"/>
+      <c r="AD84" s="2"/>
+      <c r="AF84" s="2"/>
+      <c r="AH84" s="2"/>
+      <c r="AJ84" s="2"/>
+      <c r="AL84" s="2"/>
+      <c r="AN84" s="2"/>
+      <c r="AP84" s="2"/>
+      <c r="AR84" s="2"/>
+      <c r="AT84" s="2"/>
+      <c r="AV84" s="2"/>
+    </row>
+    <row r="85" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="W85" s="1"/>
+      <c r="Y85" s="1"/>
+      <c r="AA85" s="1"/>
+      <c r="AC85" s="1"/>
+      <c r="AE85" s="1"/>
+      <c r="AG85" s="1"/>
+      <c r="AI85" s="1"/>
+      <c r="AK85" s="1"/>
+      <c r="AM85" s="1"/>
+      <c r="AO85" s="1"/>
+      <c r="AQ85" s="1"/>
+      <c r="AS85" s="1"/>
+      <c r="AU85" s="1"/>
+    </row>
+    <row r="86" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="X86" s="2"/>
+      <c r="Z86" s="2"/>
+      <c r="AB86" s="2"/>
+      <c r="AD86" s="2"/>
+      <c r="AF86" s="2"/>
+      <c r="AH86" s="2"/>
+      <c r="AJ86" s="2"/>
+      <c r="AL86" s="2"/>
+      <c r="AN86" s="2"/>
+      <c r="AP86" s="2"/>
+      <c r="AR86" s="2"/>
+      <c r="AT86" s="2"/>
+      <c r="AV86" s="2"/>
+    </row>
+    <row r="87" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="U87" s="1"/>
+      <c r="W87" s="1"/>
+      <c r="Y87" s="1"/>
+      <c r="AA87" s="1"/>
+      <c r="AC87" s="1"/>
+      <c r="AE87" s="1"/>
+      <c r="AG87" s="1"/>
+      <c r="AI87" s="1"/>
+      <c r="AK87" s="1"/>
+      <c r="AM87" s="1"/>
+      <c r="AO87" s="1"/>
+      <c r="AQ87" s="1"/>
+      <c r="AS87" s="1"/>
+      <c r="AU87" s="1"/>
+    </row>
+    <row r="88" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="B88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="V88" s="2"/>
+      <c r="X88" s="2"/>
+      <c r="Z88" s="2"/>
+      <c r="AB88" s="2"/>
+      <c r="AD88" s="2"/>
+      <c r="AF88" s="2"/>
+      <c r="AH88" s="2"/>
+      <c r="AJ88" s="2"/>
+      <c r="AL88" s="2"/>
+      <c r="AN88" s="2"/>
+      <c r="AP88" s="2"/>
+      <c r="AR88" s="2"/>
+      <c r="AT88" s="2"/>
+      <c r="AV88" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6668,11 +8568,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6685,7 +8583,7 @@
       </c>
       <c r="B1">
         <f ca="1">_xlfn.NORM.INV(RAND(), 0, 1)</f>
-        <v>-1.2005691583894424</v>
+        <v>9.6431458692483915E-2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6694,7 +8592,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B30" ca="1" si="0">_xlfn.NORM.INV(RAND(), 0, 1)</f>
-        <v>-2.2561982749687921</v>
+        <v>0.84422440654607145</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -6703,7 +8601,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0693311432463108</v>
+        <v>-0.18511820778663166</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -6712,7 +8610,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6680978093155282</v>
+        <v>-2.3402558711290427</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6721,7 +8619,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.47292669573906088</v>
+        <v>-0.57025793151964643</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -6730,7 +8628,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76674145877944377</v>
+        <v>-0.95337537833018382</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -6739,7 +8637,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.19752549726725349</v>
+        <v>1.6761834119742376</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -6748,7 +8646,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.84803870903136891</v>
+        <v>0.41962809033921822</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -6757,7 +8655,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.4582770056300023</v>
+        <v>-1.1555461732531676</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -6766,7 +8664,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1291713166662345</v>
+        <v>1.0324502986536035</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -6775,7 +8673,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1637362136425444E-2</v>
+        <v>-2.8545901234486373E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -6784,7 +8682,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1191184429683387</v>
+        <v>0.48755124380840653</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -6793,7 +8691,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78230901232468408</v>
+        <v>0.18241007590871416</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -6802,7 +8700,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.41675290567086465</v>
+        <v>-0.40645151130854779</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -6811,7 +8709,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0919255858445771</v>
+        <v>-1.8311490842109572</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -6820,137 +8718,133 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.6674608706778902</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.96215492498844646</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.86916050211402363</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.3995494340984942</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>-7.783673881596867E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.429627205651838</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>19</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.53470006974012751</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.46732579014128267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>20</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.7741037174766565</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.53704066915857618</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>21</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.70618211300885148</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-2.1793919844635887</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>1.20545967803557</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.1105943031094816</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>23</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2335298649046387</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3.0122479941224252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>24</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97624349974897351</v>
-      </c>
-      <c r="D24">
-        <f ca="1">_xlfn.NORM.DIST(RAND(), 0, 3, FALSE)*50</f>
-        <v>6.6329223523244467</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1.2253461744283378</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>25</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2338137617261604</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.95486093194605204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>26</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6634345030051914</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.25488180096545371</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>27</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36816322060375262</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-0.87952993905620658</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>28</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.63299688583835878</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1.0472122627582323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>29</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26409934132161672</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.14803438285067375</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>30</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1555332315575352E-2</v>
+        <v>5.1002787723627714E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6961,866 +8855,115 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="7.140625" style="90" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="90" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="90" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="90" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="90" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="90"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="B1" s="89"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="91" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A3" s="83">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="92">
         <v>217</v>
       </c>
-      <c r="B3" s="84">
+      <c r="B3" s="93">
         <v>41107</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
-      <c r="R3" s="82"/>
-      <c r="S3" s="82"/>
-      <c r="T3" s="82"/>
-      <c r="U3" s="82"/>
-      <c r="V3" s="82"/>
-      <c r="W3" s="82"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="83">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="92">
         <v>268</v>
       </c>
-      <c r="B4" s="84">
+      <c r="B4" s="93">
         <v>72707</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="82"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="83">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="92">
         <v>224</v>
       </c>
-      <c r="B5" s="84">
+      <c r="B5" s="93">
         <v>41676</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="83">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="92">
         <v>286</v>
       </c>
-      <c r="B6" s="84">
+      <c r="B6" s="93">
         <v>87858</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="82"/>
-      <c r="S6" s="82"/>
-      <c r="T6" s="82"/>
-      <c r="U6" s="82"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="82"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="83">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="92">
         <v>226</v>
       </c>
-      <c r="B7" s="84">
+      <c r="B7" s="93">
         <v>45606</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="83">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="92">
         <v>228</v>
       </c>
-      <c r="B8" s="84">
+      <c r="B8" s="93">
         <v>49017</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="82"/>
-      <c r="S8" s="82"/>
-      <c r="T8" s="82"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="83">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="92">
         <v>234</v>
       </c>
-      <c r="B9" s="84">
+      <c r="B9" s="93">
         <v>57967</v>
       </c>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="82"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="82"/>
-      <c r="S9" s="82"/>
-      <c r="T9" s="82"/>
-      <c r="U9" s="82"/>
-      <c r="V9" s="82"/>
-      <c r="W9" s="82"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="83">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="92">
         <v>267</v>
       </c>
-      <c r="B10" s="84">
+      <c r="B10" s="93">
         <v>70702</v>
       </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="82"/>
-      <c r="V10" s="82"/>
-      <c r="W10" s="82"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="83">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="92">
         <v>279</v>
       </c>
-      <c r="B11" s="84">
+      <c r="B11" s="93">
         <v>77738</v>
       </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
-      <c r="N11" s="82"/>
-      <c r="O11" s="82"/>
-      <c r="P11" s="82"/>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
-      <c r="S11" s="82"/>
-      <c r="T11" s="82"/>
-      <c r="U11" s="82"/>
-      <c r="V11" s="82"/>
-      <c r="W11" s="82"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="83">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="92">
         <v>261</v>
       </c>
-      <c r="B12" s="84">
+      <c r="B12" s="93">
         <v>69496</v>
       </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-      <c r="J12" s="82"/>
-      <c r="K12" s="82"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="82"/>
-      <c r="R12" s="82"/>
-      <c r="S12" s="82"/>
-      <c r="T12" s="82"/>
-      <c r="U12" s="82"/>
-      <c r="V12" s="82"/>
-      <c r="W12" s="82"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="82"/>
-      <c r="J13" s="82"/>
-      <c r="K13" s="82"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="82"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="82"/>
-      <c r="P13" s="82"/>
-      <c r="Q13" s="82"/>
-      <c r="R13" s="82"/>
-      <c r="S13" s="82"/>
-      <c r="T13" s="82"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="82"/>
-      <c r="W13" s="82"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="82"/>
-      <c r="N14" s="82"/>
-      <c r="O14" s="82"/>
-      <c r="P14" s="82"/>
-      <c r="Q14" s="82"/>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="82"/>
-      <c r="V14" s="82"/>
-      <c r="W14" s="82"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="82"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="82"/>
-      <c r="V15" s="82"/>
-      <c r="W15" s="82"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="82"/>
-      <c r="N16" s="82"/>
-      <c r="O16" s="82"/>
-      <c r="P16" s="82"/>
-      <c r="Q16" s="82"/>
-      <c r="R16" s="82"/>
-      <c r="S16" s="82"/>
-      <c r="T16" s="82"/>
-      <c r="U16" s="82"/>
-      <c r="V16" s="82"/>
-      <c r="W16" s="82"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="82"/>
-      <c r="N17" s="82"/>
-      <c r="O17" s="82"/>
-      <c r="P17" s="82"/>
-      <c r="Q17" s="82"/>
-      <c r="R17" s="82"/>
-      <c r="S17" s="82"/>
-      <c r="T17" s="82"/>
-      <c r="U17" s="82"/>
-      <c r="V17" s="82"/>
-      <c r="W17" s="82"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="82"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
-      <c r="O18" s="82"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="82"/>
-      <c r="R18" s="82"/>
-      <c r="S18" s="82"/>
-      <c r="T18" s="82"/>
-      <c r="U18" s="82"/>
-      <c r="V18" s="82"/>
-      <c r="W18" s="82"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="82"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
-      <c r="M19" s="82"/>
-      <c r="N19" s="82"/>
-      <c r="O19" s="82"/>
-      <c r="P19" s="82"/>
-      <c r="Q19" s="82"/>
-      <c r="R19" s="82"/>
-      <c r="S19" s="82"/>
-      <c r="T19" s="82"/>
-      <c r="U19" s="82"/>
-      <c r="V19" s="82"/>
-      <c r="W19" s="82"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="82"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
-      <c r="M20" s="82"/>
-      <c r="N20" s="82"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="82"/>
-      <c r="Q20" s="82"/>
-      <c r="R20" s="82"/>
-      <c r="S20" s="82"/>
-      <c r="T20" s="82"/>
-      <c r="U20" s="82"/>
-      <c r="V20" s="82"/>
-      <c r="W20" s="82"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="82"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="82"/>
-      <c r="D21" s="82"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82"/>
-      <c r="N21" s="82"/>
-      <c r="O21" s="82"/>
-      <c r="P21" s="82"/>
-      <c r="Q21" s="82"/>
-      <c r="R21" s="82"/>
-      <c r="S21" s="82"/>
-      <c r="T21" s="82"/>
-      <c r="U21" s="82"/>
-      <c r="V21" s="82"/>
-      <c r="W21" s="82"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="82"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="82"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="82"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="82"/>
-      <c r="U22" s="82"/>
-      <c r="V22" s="82"/>
-      <c r="W22" s="82"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="82"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="82"/>
-      <c r="D23" s="82"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
-      <c r="M23" s="82"/>
-      <c r="N23" s="82"/>
-      <c r="O23" s="82"/>
-      <c r="P23" s="82"/>
-      <c r="Q23" s="82"/>
-      <c r="R23" s="82"/>
-      <c r="S23" s="82"/>
-      <c r="T23" s="82"/>
-      <c r="U23" s="82"/>
-      <c r="V23" s="82"/>
-      <c r="W23" s="82"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
-      <c r="M24" s="82"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="82"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="82"/>
-      <c r="R24" s="82"/>
-      <c r="S24" s="82"/>
-      <c r="T24" s="82"/>
-      <c r="U24" s="82"/>
-      <c r="V24" s="82"/>
-      <c r="W24" s="82"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="82"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
-      <c r="M25" s="82"/>
-      <c r="N25" s="82"/>
-      <c r="O25" s="82"/>
-      <c r="P25" s="82"/>
-      <c r="Q25" s="82"/>
-      <c r="R25" s="82"/>
-      <c r="S25" s="82"/>
-      <c r="T25" s="82"/>
-      <c r="U25" s="82"/>
-      <c r="V25" s="82"/>
-      <c r="W25" s="82"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="82"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
-      <c r="M26" s="82"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="82"/>
-      <c r="P26" s="82"/>
-      <c r="Q26" s="82"/>
-      <c r="R26" s="82"/>
-      <c r="S26" s="82"/>
-      <c r="T26" s="82"/>
-      <c r="U26" s="82"/>
-      <c r="V26" s="82"/>
-      <c r="W26" s="82"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="82"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
-      <c r="J27" s="82"/>
-      <c r="K27" s="82"/>
-      <c r="L27" s="82"/>
-      <c r="M27" s="82"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="82"/>
-      <c r="P27" s="82"/>
-      <c r="Q27" s="82"/>
-      <c r="R27" s="82"/>
-      <c r="S27" s="82"/>
-      <c r="T27" s="82"/>
-      <c r="U27" s="82"/>
-      <c r="V27" s="82"/>
-      <c r="W27" s="82"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="82"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="82"/>
-      <c r="D28" s="82"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="82"/>
-      <c r="J28" s="82"/>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="82"/>
-      <c r="U28" s="82"/>
-      <c r="V28" s="82"/>
-      <c r="W28" s="82"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A29" s="82"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="82"/>
-      <c r="R29" s="82"/>
-      <c r="S29" s="82"/>
-      <c r="T29" s="82"/>
-      <c r="U29" s="82"/>
-      <c r="V29" s="82"/>
-      <c r="W29" s="82"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="82"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="82"/>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="82"/>
-      <c r="S30" s="82"/>
-      <c r="T30" s="82"/>
-      <c r="U30" s="82"/>
-      <c r="V30" s="82"/>
-      <c r="W30" s="82"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="82"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="82"/>
-      <c r="D31" s="82"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="82"/>
-      <c r="T31" s="82"/>
-      <c r="U31" s="82"/>
-      <c r="V31" s="82"/>
-      <c r="W31" s="82"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="82"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="82"/>
-      <c r="Q32" s="82"/>
-      <c r="R32" s="82"/>
-      <c r="S32" s="82"/>
-      <c r="T32" s="82"/>
-      <c r="U32" s="82"/>
-      <c r="V32" s="82"/>
-      <c r="W32" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/inst/loadExample.xlsx
+++ b/inst/loadExample.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Rprojects\openxlsx\inst\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="630" yWindow="555" windowWidth="17895" windowHeight="7365"/>
+    <workbookView xWindow="630" yWindow="555" windowWidth="17895" windowHeight="7365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Heights and Widths" sheetId="5" r:id="rId1"/>
@@ -13,7 +18,7 @@
     <sheet name="Chart" sheetId="6" r:id="rId4"/>
     <sheet name="Sales" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -840,6 +845,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -864,17 +880,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="14" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -885,6 +890,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -905,7 +913,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1026,94 +1033,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>9.6431458692483915E-2</c:v>
+                  <c:v>-1.6286369514996046</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84422440654607145</c:v>
+                  <c:v>-0.80259671105381813</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.18511820778663166</c:v>
+                  <c:v>2.3434032378212764</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.3402558711290427</c:v>
+                  <c:v>-0.76008968312749581</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.57025793151964643</c:v>
+                  <c:v>0.95598261500164772</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.95337537833018382</c:v>
+                  <c:v>0.45853959488243146</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6761834119742376</c:v>
+                  <c:v>-0.65981418430203442</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.41962809033921822</c:v>
+                  <c:v>1.0056392600088764</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.1555461732531676</c:v>
+                  <c:v>1.4267779198476243</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0324502986536035</c:v>
+                  <c:v>0.88625156403185001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.8545901234486373E-2</c:v>
+                  <c:v>0.47626721173020048</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.48755124380840653</c:v>
+                  <c:v>0.62298367675079713</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.18241007590871416</c:v>
+                  <c:v>-0.57811926669034175</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.40645151130854779</c:v>
+                  <c:v>-0.35823610365033776</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.8311490842109572</c:v>
+                  <c:v>-0.61238002422732263</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.96215492498844646</c:v>
+                  <c:v>-0.18649925450699487</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3995494340984942</c:v>
+                  <c:v>0.81974219397416348</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.429627205651838</c:v>
+                  <c:v>0.27356123235836988</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.46732579014128267</c:v>
+                  <c:v>-0.64030197339033079</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.53704066915857618</c:v>
+                  <c:v>-0.59971385965600577</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-2.1793919844635887</c:v>
+                  <c:v>6.6845541758186314E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1105943031094816</c:v>
+                  <c:v>0.45603723181899752</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.0122479941224252</c:v>
+                  <c:v>1.0509898886439115</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-1.2253461744283378</c:v>
+                  <c:v>-1.4983382337419218</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.95486093194605204</c:v>
+                  <c:v>1.7146782835268835</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.25488180096545371</c:v>
+                  <c:v>2.1833898119136865</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.87952993905620658</c:v>
+                  <c:v>0.31201518133058126</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.0472122627582323</c:v>
+                  <c:v>-1.3109688270183557</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.14803438285067375</c:v>
+                  <c:v>-1.9294154638738026</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.1002787723627714E-2</c:v>
+                  <c:v>-0.97504759908101213</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1128,11 +1135,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="82859136"/>
-        <c:axId val="82860672"/>
+        <c:axId val="177559520"/>
+        <c:axId val="177560080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82859136"/>
+        <c:axId val="177559520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1142,12 +1149,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82860672"/>
+        <c:crossAx val="177560080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82860672"/>
+        <c:axId val="177560080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1158,14 +1165,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82859136"/>
+        <c:crossAx val="177559520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1257,8 +1263,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82949248"/>
-        <c:axId val="82950784"/>
+        <c:axId val="177562880"/>
+        <c:axId val="177563440"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1320,11 +1326,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82954112"/>
-        <c:axId val="82952576"/>
+        <c:axId val="177564560"/>
+        <c:axId val="177564000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82949248"/>
+        <c:axId val="177562880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1333,7 +1339,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82950784"/>
+        <c:crossAx val="177563440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1341,7 +1347,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82950784"/>
+        <c:axId val="177563440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1352,12 +1358,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82949248"/>
+        <c:crossAx val="177562880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82952576"/>
+        <c:axId val="177564000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1367,12 +1373,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82954112"/>
+        <c:crossAx val="177564560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="82954112"/>
+        <c:axId val="177564560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1381,7 +1387,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82952576"/>
+        <c:crossAx val="177564000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1391,7 +1397,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1473,8 +1478,17 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId3">
+                  <a14:imgEffect>
+                    <a14:colorTemperature colorTemp="6874"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
@@ -1492,6 +1506,15 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:effectLst>
+          <a:glow rad="12700">
+            <a:schemeClr val="accent1">
+              <a:alpha val="40000"/>
+            </a:schemeClr>
+          </a:glow>
+          <a:reflection blurRad="825500" stA="47000" endPos="65000" dist="76200" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+        </a:effectLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1795,7 +1818,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1830,7 +1853,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2041,7 +2064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2067,55 +2090,55 @@
       <c r="B15" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="83"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="85"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="90"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D17" s="83"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="85"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="90"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="83"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="85"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="90"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="83"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="85"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="90"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="83"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="85"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="91"/>
+      <c r="F20" s="90"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D21" s="83"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="85"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="90"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D22" s="83"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="85"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="91"/>
+      <c r="F22" s="90"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="89"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="94" t="s">
+      <c r="D26" s="86" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2138,11 +2161,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2153,19 +2176,19 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
@@ -8583,7 +8606,7 @@
       </c>
       <c r="B1">
         <f ca="1">_xlfn.NORM.INV(RAND(), 0, 1)</f>
-        <v>9.6431458692483915E-2</v>
+        <v>-1.6286369514996046</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -8592,7 +8615,7 @@
       </c>
       <c r="B2">
         <f t="shared" ref="B2:B30" ca="1" si="0">_xlfn.NORM.INV(RAND(), 0, 1)</f>
-        <v>0.84422440654607145</v>
+        <v>-0.80259671105381813</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8601,7 +8624,7 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.18511820778663166</v>
+        <v>2.3434032378212764</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8610,7 +8633,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.3402558711290427</v>
+        <v>-0.76008968312749581</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -8619,7 +8642,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.57025793151964643</v>
+        <v>0.95598261500164772</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8628,7 +8651,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.95337537833018382</v>
+        <v>0.45853959488243146</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -8637,7 +8660,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6761834119742376</v>
+        <v>-0.65981418430203442</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -8646,7 +8669,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41962809033921822</v>
+        <v>1.0056392600088764</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -8655,7 +8678,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.1555461732531676</v>
+        <v>1.4267779198476243</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -8664,7 +8687,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0324502986536035</v>
+        <v>0.88625156403185001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -8673,7 +8696,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.8545901234486373E-2</v>
+        <v>0.47626721173020048</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -8682,7 +8705,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48755124380840653</v>
+        <v>0.62298367675079713</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -8691,7 +8714,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18241007590871416</v>
+        <v>-0.57811926669034175</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -8700,7 +8723,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.40645151130854779</v>
+        <v>-0.35823610365033776</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -8709,7 +8732,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8311490842109572</v>
+        <v>-0.61238002422732263</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -8718,7 +8741,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.96215492498844646</v>
+        <v>-0.18649925450699487</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -8727,7 +8750,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3995494340984942</v>
+        <v>0.81974219397416348</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8736,7 +8759,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>1.429627205651838</v>
+        <v>0.27356123235836988</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -8745,7 +8768,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46732579014128267</v>
+        <v>-0.64030197339033079</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -8754,7 +8777,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53704066915857618</v>
+        <v>-0.59971385965600577</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -8763,7 +8786,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.1793919844635887</v>
+        <v>6.6845541758186314E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -8772,7 +8795,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1105943031094816</v>
+        <v>0.45603723181899752</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -8781,7 +8804,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0122479941224252</v>
+        <v>1.0509898886439115</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -8790,7 +8813,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2253461744283378</v>
+        <v>-1.4983382337419218</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -8799,7 +8822,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.95486093194605204</v>
+        <v>1.7146782835268835</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -8808,7 +8831,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.25488180096545371</v>
+        <v>2.1833898119136865</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -8817,7 +8840,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.87952993905620658</v>
+        <v>0.31201518133058126</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -8826,7 +8849,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0472122627582323</v>
+        <v>-1.3109688270183557</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -8835,7 +8858,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14803438285067375</v>
+        <v>-1.9294154638738026</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -8844,7 +8867,7 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1002787723627714E-2</v>
+        <v>-0.97504759908101213</v>
       </c>
     </row>
   </sheetData>
@@ -8863,105 +8886,105 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="90" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="90" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="90" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="90" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="90" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="90"/>
+    <col min="1" max="1" width="7.140625" style="82" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="82" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="82" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="82" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="82" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="82"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="94"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="83" t="s">
         <v>102</v>
       </c>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="83" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="92">
+      <c r="A3" s="84">
         <v>217</v>
       </c>
-      <c r="B3" s="93">
+      <c r="B3" s="85">
         <v>41107</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="92">
+      <c r="A4" s="84">
         <v>268</v>
       </c>
-      <c r="B4" s="93">
+      <c r="B4" s="85">
         <v>72707</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="92">
+      <c r="A5" s="84">
         <v>224</v>
       </c>
-      <c r="B5" s="93">
+      <c r="B5" s="85">
         <v>41676</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="92">
+      <c r="A6" s="84">
         <v>286</v>
       </c>
-      <c r="B6" s="93">
+      <c r="B6" s="85">
         <v>87858</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="92">
+      <c r="A7" s="84">
         <v>226</v>
       </c>
-      <c r="B7" s="93">
+      <c r="B7" s="85">
         <v>45606</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="92">
+      <c r="A8" s="84">
         <v>228</v>
       </c>
-      <c r="B8" s="93">
+      <c r="B8" s="85">
         <v>49017</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="92">
+      <c r="A9" s="84">
         <v>234</v>
       </c>
-      <c r="B9" s="93">
+      <c r="B9" s="85">
         <v>57967</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="92">
+      <c r="A10" s="84">
         <v>267</v>
       </c>
-      <c r="B10" s="93">
+      <c r="B10" s="85">
         <v>70702</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="92">
+      <c r="A11" s="84">
         <v>279</v>
       </c>
-      <c r="B11" s="93">
+      <c r="B11" s="85">
         <v>77738</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="92">
+      <c r="A12" s="84">
         <v>261</v>
       </c>
-      <c r="B12" s="93">
+      <c r="B12" s="85">
         <v>69496</v>
       </c>
     </row>

--- a/inst/loadExample.xlsx
+++ b/inst/loadExample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Rprojects\openxlsx\inst\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,11 +17,24 @@
     <sheet name="mtcars" sheetId="6" r:id="rId3"/>
     <sheet name="mtCars Pivot" sheetId="2" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="Slicer_Species">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId5"/>
     <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId7"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -377,7 +390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -403,6 +416,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -431,7 +452,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -439,9 +460,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -451,6 +469,9 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -740,11 +761,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="182674320"/>
-        <c:axId val="182674880"/>
+        <c:axId val="182290896"/>
+        <c:axId val="182291456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="182674320"/>
+        <c:axId val="182290896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -800,12 +821,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182674880"/>
+        <c:crossAx val="182291456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="182674880"/>
+        <c:axId val="182291456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,7 +883,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182674320"/>
+        <c:crossAx val="182290896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -925,7 +946,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[loadExample2.xlsx]mtCars Pivot!PivotTable1</c:name>
+    <c:name>[loadExample.xlsx]mtCars Pivot!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1173,11 +1194,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="182678800"/>
-        <c:axId val="182679360"/>
+        <c:axId val="182295376"/>
+        <c:axId val="182295936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182678800"/>
+        <c:axId val="182295376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1220,7 +1241,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182679360"/>
+        <c:crossAx val="182295936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1228,7 +1249,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182679360"/>
+        <c:axId val="182295936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,7 +1300,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182678800"/>
+        <c:crossAx val="182295376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1930,16 +1951,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>700087</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1956,6 +1977,78 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>962025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Species"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Species"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4572000" y="1676400"/>
+              <a:ext cx="1828800" cy="2524125"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2292,7 +2385,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="1"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -2854,7 +2947,7 @@
     <dataField name="Sum of Petal.Width" fld="3" baseField="0" baseItem="0"/>
     <dataField name="Sum of Petal.Length" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -2954,8 +3047,31 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Species" sourceName="Species">
+  <pivotTables>
+    <pivotTable tabId="1" name="PivotTable3"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1">
+      <items count="3">
+        <i x="1" s="1"/>
+        <i x="2" s="1"/>
+        <i x="0" s="1"/>
+      </items>
+    </tabular>
+  </data>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <slicer name="Species" cache="Slicer_Species" caption="Species" style="SlicerStyleOther2" rowHeight="241300"/>
+</slicers>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E51" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E51" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:E51"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Sepal Length"/>
@@ -2964,7 +3080,7 @@
     <tableColumn id="4" name="Petal Width"/>
     <tableColumn id="5" name="Species"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3278,24 +3394,28 @@
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="7" max="11" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
     <col min="12" max="12" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="21" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3315,7 +3435,7 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="22" t="s">
         <v>19</v>
       </c>
       <c r="H2" t="s">
@@ -3347,19 +3467,19 @@
       <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="24">
         <v>95.5</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="24">
         <v>67.2</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="24">
         <v>4.1000000000000005</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="24">
         <v>27.299999999999997</v>
       </c>
     </row>
@@ -3379,19 +3499,19 @@
       <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="24">
         <v>82.300000000000011</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="24">
         <v>39.299999999999997</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="24">
         <v>19.400000000000002</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="24">
         <v>60.300000000000004</v>
       </c>
     </row>
@@ -3411,19 +3531,19 @@
       <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="24">
         <v>117.00000000000003</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="24">
         <v>51.499999999999993</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="24">
         <v>34.4</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="24">
         <v>97.7</v>
       </c>
     </row>
@@ -3443,19 +3563,19 @@
       <c r="E6" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="24">
         <v>294.80000000000007</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="24">
         <v>158</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="24">
         <v>57.900000000000006</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="24">
         <v>185.3</v>
       </c>
     </row>
@@ -4234,12 +4354,19 @@
   <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId4"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q22"/>
+  <dimension ref="B2:Q30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4249,142 +4376,142 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="21"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27"/>
       <c r="I2">
         <f t="shared" ref="I2:N5" ca="1" si="0">RAND()</f>
-        <v>0.73768703733915797</v>
+        <v>4.7843551266302242E-5</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39152795540670637</v>
+        <v>0.54349269351746454</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53539329611783482</v>
+        <v>0.83976641723449519</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78077156376456658</v>
+        <v>0.54408913885924359</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61774718788005756</v>
+        <v>0.76485564102311587</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37962657674348399</v>
+        <v>0.15597237021410737</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="24"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="26"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="30"/>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49861535533374557</v>
+        <v>0.66393563526236432</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64283354155829242</v>
+        <v>0.57618069346123824</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12511177988044486</v>
+        <v>0.88472130349963962</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25291246104755549</v>
+        <v>0.56062677789030835</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6503148196203585E-2</v>
+        <v>0.77770638947014625</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21700860290023827</v>
+        <v>0.21472374969789387</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="26"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="30"/>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42416564259774503</v>
+        <v>0.21949152871221178</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40783994894103326</v>
+        <v>0.96307149682721682</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29854525593718495</v>
+        <v>0.50559765753137376</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33644685780568295</v>
+        <v>0.20890321606875717</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6679792927503878E-2</v>
+        <v>0.35363439518527695</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18422709325624131</v>
+        <v>0.73476850332372101</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30"/>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18122692858164002</v>
+        <v>0.34316007466563636</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67328819224310188</v>
+        <v>0.67697097245047244</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19768367003791931</v>
+        <v>0.56514336264335807</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18177192440983159</v>
+        <v>0.56907424309306276</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2495202151650554</v>
+        <v>0.64730675520919256</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97551383384430723</v>
+        <v>0.41561649251413613</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="26"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
       <c r="I7" s="19" t="s">
         <v>21</v>
       </c>
@@ -4611,12 +4738,37 @@
         <v>22</v>
       </c>
     </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D26" s="34"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D27" s="34"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D28" s="34"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D29" s="34"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D30" s="34"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B2:F7"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="D26:D30"/>
   </mergeCells>
   <conditionalFormatting sqref="I2:N5">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/inst/loadExample.xlsx
+++ b/inst/loadExample.xlsx
@@ -761,11 +761,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="182290896"/>
-        <c:axId val="182291456"/>
+        <c:axId val="185606368"/>
+        <c:axId val="185606928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="182290896"/>
+        <c:axId val="185606368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -821,12 +821,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182291456"/>
+        <c:crossAx val="185606928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="182291456"/>
+        <c:axId val="185606928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,7 +883,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182290896"/>
+        <c:crossAx val="185606368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1194,11 +1194,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="182295376"/>
-        <c:axId val="182295936"/>
+        <c:axId val="185610848"/>
+        <c:axId val="190716160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182295376"/>
+        <c:axId val="185610848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,7 +1241,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182295936"/>
+        <c:crossAx val="190716160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1249,7 +1249,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182295936"/>
+        <c:axId val="190716160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,7 +1300,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182295376"/>
+        <c:crossAx val="185610848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1314,6 +1314,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1992,8 +1993,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="2" name="Species"/>
@@ -2010,7 +2011,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -2169,108 +2170,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>210660</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47623</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>271620</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>93343</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10573860" y="238123"/>
-          <a:ext cx="3108960" cy="2331720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:effectLst>
-          <a:glow rad="25400">
-            <a:schemeClr val="accent1">
-              <a:alpha val="40000"/>
-            </a:schemeClr>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>105410</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>74295</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7359650" y="2695575"/>
-          <a:ext cx="3108960" cy="2331720"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:effectLst>
-          <a:glow rad="25400">
-            <a:schemeClr val="accent1">
-              <a:alpha val="40000"/>
-            </a:schemeClr>
-          </a:glow>
-        </a:effectLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
       <xdr:colOff>242565</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -2289,7 +2188,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -3385,7 +3284,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E51"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4368,7 +4269,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4383,27 +4286,27 @@
       <c r="F2" s="27"/>
       <c r="I2">
         <f t="shared" ref="I2:N5" ca="1" si="0">RAND()</f>
-        <v>4.7843551266302242E-5</v>
+        <v>0.22060057268642486</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54349269351746454</v>
+        <v>0.66690748629721264</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83976641723449519</v>
+        <v>0.83671370519404131</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54408913885924359</v>
+        <v>2.7040669797529504E-2</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76485564102311587</v>
+        <v>0.13311669745560573</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15597237021410737</v>
+        <v>0.54117938570305413</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
@@ -4414,27 +4317,27 @@
       <c r="F3" s="30"/>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66393563526236432</v>
+        <v>0.16511433758737537</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57618069346123824</v>
+        <v>0.528568050784333</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88472130349963962</v>
+        <v>0.94793286774905361</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56062677789030835</v>
+        <v>0.40462046789421091</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77770638947014625</v>
+        <v>0.13151422472851415</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21472374969789387</v>
+        <v>0.88726832638375486</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
@@ -4445,27 +4348,27 @@
       <c r="F4" s="30"/>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21949152871221178</v>
+        <v>0.29213979643112253</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96307149682721682</v>
+        <v>0.86767715374864429</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50559765753137376</v>
+        <v>0.37726136007480926</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20890321606875717</v>
+        <v>0.31002341459144089</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35363439518527695</v>
+        <v>0.3073670969989899</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73476850332372101</v>
+        <v>2.4550588549039354E-3</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
@@ -4476,27 +4379,27 @@
       <c r="F5" s="30"/>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34316007466563636</v>
+        <v>0.49701433143687834</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67697097245047244</v>
+        <v>0.84327755490849365</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56514336264335807</v>
+        <v>0.70596208620789169</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56907424309306276</v>
+        <v>7.5014691136542799E-2</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64730675520919256</v>
+        <v>0.2451276201868271</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41561649251413613</v>
+        <v>0.3379945012554062</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">

--- a/inst/loadExample.xlsx
+++ b/inst/loadExample.xlsx
@@ -761,11 +761,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="185606368"/>
-        <c:axId val="185606928"/>
+        <c:axId val="191519824"/>
+        <c:axId val="191520384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="185606368"/>
+        <c:axId val="191519824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -821,12 +821,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185606928"/>
+        <c:crossAx val="191520384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="185606928"/>
+        <c:axId val="191520384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,7 +883,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185606368"/>
+        <c:crossAx val="191519824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1194,11 +1194,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="185610848"/>
-        <c:axId val="190716160"/>
+        <c:axId val="191524304"/>
+        <c:axId val="191524864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="185610848"/>
+        <c:axId val="191524304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,7 +1241,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190716160"/>
+        <c:crossAx val="191524864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1249,7 +1249,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190716160"/>
+        <c:axId val="191524864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,7 +1300,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185610848"/>
+        <c:crossAx val="191524304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1314,7 +1314,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3284,9 +3283,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E51"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4286,27 +4283,27 @@
       <c r="F2" s="27"/>
       <c r="I2">
         <f t="shared" ref="I2:N5" ca="1" si="0">RAND()</f>
-        <v>0.22060057268642486</v>
+        <v>8.7531962467226054E-2</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66690748629721264</v>
+        <v>0.62917301559126704</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83671370519404131</v>
+        <v>0.9284323120888478</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.7040669797529504E-2</v>
+        <v>0.25531324293453683</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13311669745560573</v>
+        <v>0.37533998259847279</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54117938570305413</v>
+        <v>0.95712694339681037</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
@@ -4317,27 +4314,27 @@
       <c r="F3" s="30"/>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16511433758737537</v>
+        <v>0.14290232312427076</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.528568050784333</v>
+        <v>0.93326491419763846</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94793286774905361</v>
+        <v>0.30414849858785409</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40462046789421091</v>
+        <v>0.52022231509252026</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13151422472851415</v>
+        <v>0.96120707502078695</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88726832638375486</v>
+        <v>0.18003828935577837</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
@@ -4348,27 +4345,27 @@
       <c r="F4" s="30"/>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29213979643112253</v>
+        <v>0.83669213684409327</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86767715374864429</v>
+        <v>0.95736487374263202</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37726136007480926</v>
+        <v>0.19795182492730812</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31002341459144089</v>
+        <v>0.17146390471471906</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3073670969989899</v>
+        <v>0.93239180507298869</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4550588549039354E-3</v>
+        <v>8.4831985021545986E-2</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
@@ -4379,27 +4376,27 @@
       <c r="F5" s="30"/>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49701433143687834</v>
+        <v>0.78731913025155398</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84327755490849365</v>
+        <v>0.85066460882655714</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70596208620789169</v>
+        <v>0.13432198785950555</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>7.5014691136542799E-2</v>
+        <v>0.74873099481309313</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2451276201868271</v>
+        <v>0.99662805892583983</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3379945012554062</v>
+        <v>5.1049591812333039E-2</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">

--- a/inst/loadExample.xlsx
+++ b/inst/loadExample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24525" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24525" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IrisSample" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="30">
   <si>
     <t>Species</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>http://cran.r-project.org/</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -145,6 +142,18 @@
   </si>
   <si>
     <t>Petal Width</t>
+  </si>
+  <si>
+    <t>IrisSample!A1</t>
+  </si>
+  <si>
+    <t>Irrational_number</t>
+  </si>
+  <si>
+    <t>Decimal_fractions</t>
+  </si>
+  <si>
+    <t>IrisSample!A2</t>
   </si>
 </sst>
 </file>
@@ -761,11 +770,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="191519824"/>
-        <c:axId val="191520384"/>
+        <c:axId val="259993904"/>
+        <c:axId val="259996144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="191519824"/>
+        <c:axId val="259993904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -821,12 +830,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191520384"/>
+        <c:crossAx val="259996144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191520384"/>
+        <c:axId val="259996144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -883,7 +892,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191519824"/>
+        <c:crossAx val="259993904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1194,11 +1203,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="191524304"/>
-        <c:axId val="191524864"/>
+        <c:axId val="260000624"/>
+        <c:axId val="260001184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="191524304"/>
+        <c:axId val="260000624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,7 +1250,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191524864"/>
+        <c:crossAx val="260001184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1249,7 +1258,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191524864"/>
+        <c:axId val="260001184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,7 +1309,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191524304"/>
+        <c:crossAx val="260000624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3283,7 +3292,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3302,16 +3311,16 @@
   <sheetData>
     <row r="1" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>26</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>0</v>
@@ -4264,11 +4273,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q30"/>
+  <dimension ref="B2:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4283,27 +4290,27 @@
       <c r="F2" s="27"/>
       <c r="I2">
         <f t="shared" ref="I2:N5" ca="1" si="0">RAND()</f>
-        <v>8.7531962467226054E-2</v>
+        <v>0.48176569623943455</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62917301559126704</v>
+        <v>0.26951830788963327</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9284323120888478</v>
+        <v>0.87415131933416279</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25531324293453683</v>
+        <v>0.57398289552725368</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37533998259847279</v>
+        <v>1.8975318262670848E-2</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95712694339681037</v>
+        <v>0.17615264655711538</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
@@ -4314,27 +4321,27 @@
       <c r="F3" s="30"/>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14290232312427076</v>
+        <v>0.49448276072561581</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93326491419763846</v>
+        <v>5.5759425961584119E-2</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30414849858785409</v>
+        <v>0.9486524487835607</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52022231509252026</v>
+        <v>0.41816335639655933</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96120707502078695</v>
+        <v>0.71737738110940263</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18003828935577837</v>
+        <v>0.45690725529415899</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
@@ -4345,27 +4352,27 @@
       <c r="F4" s="30"/>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83669213684409327</v>
+        <v>0.17438427063695772</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95736487374263202</v>
+        <v>0.81982538145691086</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19795182492730812</v>
+        <v>0.5876877042457731</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17146390471471906</v>
+        <v>1.6510730919371719E-2</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93239180507298869</v>
+        <v>0.34857701433138366</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4831985021545986E-2</v>
+        <v>0.99876777993196986</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
@@ -4376,27 +4383,27 @@
       <c r="F5" s="30"/>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78731913025155398</v>
+        <v>0.21724113458373739</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85066460882655714</v>
+        <v>0.16280378617517177</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13432198785950555</v>
+        <v>7.1319733260397533E-2</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74873099481309313</v>
+        <v>0.86270757631290851</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99662805892583983</v>
+        <v>0.90215094508329596</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1049591812333039E-2</v>
+        <v>0.57452815477257535</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
@@ -4412,9 +4419,9 @@
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
       <c r="F7" s="33"/>
-      <c r="I7" s="19" t="s">
-        <v>21</v>
-      </c>
+      <c r="I7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="O7" s="19"/>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
@@ -4635,7 +4642,7 @@
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
@@ -4646,26 +4653,50 @@
       <c r="F24" s="34"/>
       <c r="G24" s="34"/>
     </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D26" s="34"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="D27" s="34"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D28" s="34"/>
+      <c r="B28" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D29" s="34"/>
+      <c r="B29" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D30" s="34"/>
+      <c r="B30" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="19" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:F7"/>
     <mergeCell ref="B24:G24"/>
-    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="D26:D27"/>
   </mergeCells>
   <conditionalFormatting sqref="I2:N5">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
@@ -4673,11 +4704,17 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1"/>
+    <hyperlink ref="B25" r:id="rId1"/>
+    <hyperlink ref="B26" r:id="rId2"/>
+    <hyperlink ref="B28" r:id="rId3" location="Decimal_fractions"/>
+    <hyperlink ref="B29" r:id="rId4" location="Decimal_fractions"/>
+    <hyperlink ref="B30" r:id="rId5" location="Decimal_fractions"/>
+    <hyperlink ref="B33" location="IrisSample!A1" display="IrisSample!A1"/>
+    <hyperlink ref="B34" location="IrisSample!A2" display="IrisSample!A2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/inst/loadExample.xlsx
+++ b/inst/loadExample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24525" windowHeight="7965" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24525" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="IrisSample" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
   <si>
     <t>Species</t>
   </si>
@@ -84,18 +84,6 @@
   </si>
   <si>
     <t>carb</t>
-  </si>
-  <si>
-    <t>Sum of Sepal.Length</t>
-  </si>
-  <si>
-    <t>Sum of Sepal.Width</t>
-  </si>
-  <si>
-    <t>Sum of Petal.Length</t>
-  </si>
-  <si>
-    <t>Sum of Petal.Width</t>
   </si>
   <si>
     <t>Row Labels</t>
@@ -155,23 +143,39 @@
   <si>
     <t>IrisSample!A2</t>
   </si>
+  <si>
+    <t>Sum of Sepal Length</t>
+  </si>
+  <si>
+    <t>Sum of Sepal Width</t>
+  </si>
+  <si>
+    <t>Sum of Petal Length</t>
+  </si>
+  <si>
+    <t>Sum of Petal Width</t>
+  </si>
+  <si>
+    <t>Average of mpg</t>
+  </si>
+  <si>
+    <t>Max of wt</t>
+  </si>
+  <si>
+    <t>Min of wt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <u/>
@@ -397,18 +401,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -423,8 +423,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -770,11 +770,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="259993904"/>
-        <c:axId val="259996144"/>
+        <c:axId val="179402928"/>
+        <c:axId val="179403488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="259993904"/>
+        <c:axId val="179402928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,12 +830,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259996144"/>
+        <c:crossAx val="179403488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="259996144"/>
+        <c:axId val="179403488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -892,7 +892,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259993904"/>
+        <c:crossAx val="179402928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -955,7 +955,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[loadExample.xlsx]mtCars Pivot!PivotTable1</c:name>
+    <c:name>[loadExample.xlsx]mtCars Pivot!PivotTable3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -980,7 +980,7 @@
         <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent2"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -995,7 +995,22 @@
         <c:idx val="2"/>
         <c:spPr>
           <a:solidFill>
-            <a:schemeClr val="accent3"/>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:ln>
             <a:noFill/>
@@ -1022,7 +1037,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of Sepal.Length</c:v>
+                  <c:v>Average of mpg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1043,13 +1058,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>setosa</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>versicolor</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>virginica</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1061,13 +1076,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>19.900000000000002</c:v>
+                  <c:v>26.890000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.5</c:v>
+                  <c:v>20.016666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44.6</c:v>
+                  <c:v>15.161538461538463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1082,7 +1097,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of Sepal.Width</c:v>
+                  <c:v>Min of wt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1103,13 +1118,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>setosa</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>versicolor</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>virginica</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1121,13 +1136,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>14.100000000000001</c:v>
+                  <c:v>1.5129999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.5</c:v>
+                  <c:v>2.62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.399999999999999</c:v>
+                  <c:v>3.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1142,7 +1157,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Sum of Petal.Length</c:v>
+                  <c:v>Max of wt</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1163,13 +1178,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>setosa</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>versicolor</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>virginica</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1181,13 +1196,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5.5</c:v>
+                  <c:v>3.15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.399999999999999</c:v>
+                  <c:v>3.44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.299999999999997</c:v>
+                  <c:v>5.4240000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1203,11 +1218,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="260000624"/>
-        <c:axId val="260001184"/>
+        <c:axId val="179407408"/>
+        <c:axId val="179407968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="260000624"/>
+        <c:axId val="179407408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1250,7 +1265,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260001184"/>
+        <c:crossAx val="179407968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1258,7 +1273,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="260001184"/>
+        <c:axId val="179407968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1309,7 +1324,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260000624"/>
+        <c:crossAx val="179407408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1323,6 +1338,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1401,6 +1417,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1956,6 +2012,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1990,22 +2549,22 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Species"/>
+            <xdr:cNvPr id="3" name="Species"/>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -2029,7 +2588,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4572000" y="1676400"/>
+              <a:off x="4314825" y="1857375"/>
               <a:ext cx="1828800" cy="2524125"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2234,19 +2793,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2265,21 +2824,21 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Alex" refreshedDate="42029.612519907409" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="50">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Alex" refreshedDate="42722.61292013889" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="50">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E51" sheet="IrisSample"/>
+    <worksheetSource name="Table2"/>
   </cacheSource>
   <cacheFields count="5">
-    <cacheField name="Sepal.Length" numFmtId="0">
+    <cacheField name="Sepal Length" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.4000000000000004" maxValue="7.9"/>
     </cacheField>
-    <cacheField name="Sepal.Width" numFmtId="0">
+    <cacheField name="Sepal Width" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2" maxValue="4.4000000000000004"/>
     </cacheField>
-    <cacheField name="Petal.Length" numFmtId="0">
+    <cacheField name="Petal Length" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1" maxValue="6.7"/>
     </cacheField>
-    <cacheField name="Petal.Width" numFmtId="0">
+    <cacheField name="Petal Width" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.1" maxValue="2.5"/>
     </cacheField>
     <cacheField name="Species" numFmtId="0">
@@ -2292,36 +2851,58 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="1"/>
+      <x14:pivotCacheDefinition pivotCacheId="2"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Alex" refreshedDate="42029.652971759257" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="15">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Alex" refreshedDate="42722.614035763887" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="29">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:E16" sheet="IrisSample"/>
+    <worksheetSource name="Table3"/>
   </cacheSource>
-  <cacheFields count="5">
-    <cacheField name="Sepal.Length" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.4000000000000004" maxValue="6.9"/>
+  <cacheFields count="11">
+    <cacheField name="mpg" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="10.4" maxValue="33.9"/>
     </cacheField>
-    <cacheField name="Sepal.Width" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2" maxValue="4.2"/>
+    <cacheField name="cyl" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="8" count="3">
+        <n v="6"/>
+        <n v="4"/>
+        <n v="8"/>
+      </sharedItems>
     </cacheField>
-    <cacheField name="Petal.Length" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.3" maxValue="5.8"/>
+    <cacheField name="disp" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="71.099999999999994" maxValue="472"/>
     </cacheField>
-    <cacheField name="Petal.Width" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.2" maxValue="2.1"/>
+    <cacheField name="hp" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="52" maxValue="335"/>
     </cacheField>
-    <cacheField name="Species" numFmtId="0">
-      <sharedItems count="3">
-        <s v="virginica"/>
-        <s v="setosa"/>
-        <s v="versicolor"/>
+    <cacheField name="drat" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2.76" maxValue="4.93"/>
+    </cacheField>
+    <cacheField name="wt" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="1.5129999999999999" maxValue="5.4240000000000004"/>
+    </cacheField>
+    <cacheField name="qsec" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="14.5" maxValue="22.9"/>
+    </cacheField>
+    <cacheField name="vs" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="am" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="gear" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="5" count="3">
+        <n v="4"/>
+        <n v="3"/>
+        <n v="5"/>
       </sharedItems>
+    </cacheField>
+    <cacheField name="carb" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="8"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2688,117 +3269,389 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="15">
-  <r>
-    <n v="6.4"/>
-    <n v="2.7"/>
-    <n v="5.3"/>
-    <n v="1.9"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="29">
+  <r>
+    <n v="21"/>
     <x v="0"/>
-  </r>
-  <r>
-    <n v="4.4000000000000004"/>
+    <n v="160"/>
+    <n v="110"/>
+    <n v="3.9"/>
+    <n v="2.62"/>
+    <n v="16.46"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="0"/>
+    <n v="160"/>
+    <n v="110"/>
+    <n v="3.9"/>
+    <n v="2.875"/>
+    <n v="17.02"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="22.8"/>
+    <x v="1"/>
+    <n v="108"/>
+    <n v="93"/>
+    <n v="3.85"/>
+    <n v="2.3199999999999998"/>
+    <n v="18.61"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="21.4"/>
+    <x v="0"/>
+    <n v="258"/>
+    <n v="110"/>
+    <n v="3.08"/>
+    <n v="3.2149999999999999"/>
+    <n v="19.440000000000001"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="18.7"/>
+    <x v="2"/>
+    <n v="360"/>
+    <n v="175"/>
+    <n v="3.15"/>
+    <n v="3.44"/>
+    <n v="17.02"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="22.8"/>
+    <x v="1"/>
+    <n v="140.80000000000001"/>
+    <n v="95"/>
+    <n v="3.92"/>
+    <n v="3.15"/>
+    <n v="22.9"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="19.2"/>
+    <x v="0"/>
+    <n v="167.6"/>
+    <n v="123"/>
+    <n v="3.92"/>
+    <n v="3.44"/>
+    <n v="18.3"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="17.8"/>
+    <x v="0"/>
+    <n v="167.6"/>
+    <n v="123"/>
+    <n v="3.92"/>
+    <n v="3.44"/>
+    <n v="18.899999999999999"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="0"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="16.399999999999999"/>
+    <x v="2"/>
+    <n v="275.8"/>
+    <n v="180"/>
+    <n v="3.07"/>
+    <n v="4.07"/>
+    <n v="17.399999999999999"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
     <n v="3"/>
-    <n v="1.3"/>
-    <n v="0.2"/>
+  </r>
+  <r>
+    <n v="17.3"/>
+    <x v="2"/>
+    <n v="275.8"/>
+    <n v="180"/>
+    <n v="3.07"/>
+    <n v="3.73"/>
+    <n v="17.600000000000001"/>
+    <n v="0"/>
+    <n v="0"/>
     <x v="1"/>
-  </r>
-  <r>
-    <n v="6"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="15.2"/>
+    <x v="2"/>
+    <n v="275.8"/>
+    <n v="180"/>
+    <n v="3.07"/>
+    <n v="3.78"/>
+    <n v="18"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="10.4"/>
+    <x v="2"/>
+    <n v="472"/>
+    <n v="205"/>
+    <n v="2.93"/>
+    <n v="5.25"/>
+    <n v="17.98"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="10.4"/>
+    <x v="2"/>
+    <n v="460"/>
+    <n v="215"/>
+    <n v="3"/>
+    <n v="5.4240000000000004"/>
+    <n v="17.82"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="14.7"/>
+    <x v="2"/>
+    <n v="440"/>
+    <n v="230"/>
+    <n v="3.23"/>
+    <n v="5.3449999999999998"/>
+    <n v="17.420000000000002"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="32.4"/>
+    <x v="1"/>
+    <n v="78.7"/>
+    <n v="66"/>
+    <n v="4.08"/>
     <n v="2.2000000000000002"/>
-    <n v="5"/>
-    <n v="1.5"/>
+    <n v="19.47"/>
+    <n v="1"/>
+    <n v="1"/>
     <x v="0"/>
-  </r>
-  <r>
-    <n v="6.4"/>
-    <n v="3.1"/>
-    <n v="5.5"/>
-    <n v="1.8"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="30.4"/>
+    <x v="1"/>
+    <n v="75.7"/>
+    <n v="52"/>
+    <n v="4.93"/>
+    <n v="1.615"/>
+    <n v="18.52"/>
+    <n v="1"/>
+    <n v="1"/>
     <x v="0"/>
-  </r>
-  <r>
-    <n v="6.9"/>
-    <n v="3.1"/>
-    <n v="4.9000000000000004"/>
-    <n v="1.5"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="33.9"/>
+    <x v="1"/>
+    <n v="71.099999999999994"/>
+    <n v="65"/>
+    <n v="4.22"/>
+    <n v="1.835"/>
+    <n v="19.899999999999999"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="21.5"/>
+    <x v="1"/>
+    <n v="120.1"/>
+    <n v="97"/>
+    <n v="3.7"/>
+    <n v="2.4649999999999999"/>
+    <n v="20.010000000000002"/>
+    <n v="1"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="15.5"/>
     <x v="2"/>
-  </r>
-  <r>
-    <n v="6"/>
-    <n v="3.4"/>
-    <n v="4.5"/>
-    <n v="1.6"/>
+    <n v="318"/>
+    <n v="150"/>
+    <n v="2.76"/>
+    <n v="3.52"/>
+    <n v="16.87"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="15.2"/>
     <x v="2"/>
-  </r>
-  <r>
-    <n v="6.5"/>
-    <n v="3.2"/>
-    <n v="5.0999999999999996"/>
+    <n v="304"/>
+    <n v="150"/>
+    <n v="3.15"/>
+    <n v="3.4350000000000001"/>
+    <n v="17.3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
     <n v="2"/>
+  </r>
+  <r>
+    <n v="13.3"/>
+    <x v="2"/>
+    <n v="350"/>
+    <n v="245"/>
+    <n v="3.73"/>
+    <n v="3.84"/>
+    <n v="15.41"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="19.2"/>
+    <x v="2"/>
+    <n v="400"/>
+    <n v="175"/>
+    <n v="3.08"/>
+    <n v="3.8450000000000002"/>
+    <n v="17.05"/>
+    <n v="0"/>
+    <n v="0"/>
+    <x v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="27.3"/>
+    <x v="1"/>
+    <n v="79"/>
+    <n v="66"/>
+    <n v="4.08"/>
+    <n v="1.9350000000000001"/>
+    <n v="18.899999999999999"/>
+    <n v="1"/>
+    <n v="1"/>
     <x v="0"/>
-  </r>
-  <r>
-    <n v="6.8"/>
-    <n v="3"/>
-    <n v="5.5"/>
-    <n v="2.1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="6.7"/>
-    <n v="2.5"/>
-    <n v="5.8"/>
-    <n v="1.8"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="5.6"/>
-    <n v="3"/>
-    <n v="4.5"/>
-    <n v="1.5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <n v="4.7"/>
-    <n v="3.2"/>
-    <n v="1.3"/>
-    <n v="0.2"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="26"/>
     <x v="1"/>
-  </r>
-  <r>
-    <n v="5.8"/>
-    <n v="2.7"/>
-    <n v="5.0999999999999996"/>
-    <n v="1.9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <n v="5.5"/>
-    <n v="4.2"/>
-    <n v="1.4"/>
-    <n v="0.2"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <n v="2"/>
-    <n v="3.5"/>
+    <n v="120.3"/>
+    <n v="91"/>
+    <n v="4.43"/>
+    <n v="2.14"/>
+    <n v="16.7"/>
+    <n v="0"/>
     <n v="1"/>
     <x v="2"/>
-  </r>
-  <r>
-    <n v="5.3"/>
-    <n v="3.7"/>
-    <n v="1.5"/>
-    <n v="0.2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="30.4"/>
     <x v="1"/>
+    <n v="95.1"/>
+    <n v="113"/>
+    <n v="3.77"/>
+    <n v="1.5129999999999999"/>
+    <n v="16.899999999999999"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="15.8"/>
+    <x v="2"/>
+    <n v="351"/>
+    <n v="264"/>
+    <n v="4.22"/>
+    <n v="3.17"/>
+    <n v="14.5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="19.7"/>
+    <x v="0"/>
+    <n v="145"/>
+    <n v="175"/>
+    <n v="3.62"/>
+    <n v="2.77"/>
+    <n v="15.5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="2"/>
+    <n v="301"/>
+    <n v="335"/>
+    <n v="3.54"/>
+    <n v="3.57"/>
+    <n v="14.6"/>
+    <n v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <n v="21.4"/>
+    <x v="1"/>
+    <n v="121"/>
+    <n v="109"/>
+    <n v="4.1100000000000003"/>
+    <n v="2.78"/>
+    <n v="18.600000000000001"/>
+    <n v="1"/>
+    <n v="1"/>
+    <x v="0"/>
+    <n v="2"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G2:K6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
@@ -2849,12 +3702,12 @@
     </i>
   </colItems>
   <dataFields count="4">
-    <dataField name="Sum of Sepal.Length" fld="0" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Sepal.Width" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Petal.Width" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Petal.Length" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Sepal Length" fld="0" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Sepal Width" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Petal Length" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Petal Width" fld="3" baseField="0" baseItem="0"/>
   </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -2864,24 +3717,37 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:D5" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="5">
+  <pivotFields count="11">
     <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="4">
         <item x="1"/>
+        <item x="0"/>
         <item x="2"/>
-        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="4"/>
+    <field x="1"/>
   </rowFields>
   <rowItems count="4">
     <i>
@@ -2912,9 +3778,9 @@
     </i>
   </colItems>
   <dataFields count="3">
-    <dataField name="Sum of Sepal.Length" fld="0" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Sepal.Width" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Petal.Length" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Average of mpg" fld="0" subtotal="average" baseField="1" baseItem="0"/>
+    <dataField name="Min of wt" fld="5" subtotal="min" baseField="1" baseItem="0"/>
+    <dataField name="Max of wt" fld="5" subtotal="max" baseField="1" baseItem="0"/>
   </dataFields>
   <chartFormats count="3">
     <chartFormat chart="0" format="0" series="1">
@@ -2926,7 +3792,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
+    <chartFormat chart="0" format="2" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2935,7 +3801,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
+    <chartFormat chart="0" format="3" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2957,10 +3823,10 @@
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x" name="Slicer_Species" sourceName="Species">
   <pivotTables>
-    <pivotTable tabId="1" name="PivotTable3"/>
+    <pivotTable tabId="1" name="PivotTable1"/>
   </pivotTables>
   <data>
-    <tabular pivotCacheId="1">
+    <tabular pivotCacheId="2">
       <items count="3">
         <i x="1" s="1"/>
         <i x="2" s="1"/>
@@ -2973,7 +3839,7 @@
 
 <file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <slicer name="Species" cache="Slicer_Species" caption="Species" style="SlicerStyleOther2" rowHeight="241300"/>
+  <slicer name="Species" cache="Slicer_Species" caption="Species" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -3292,7 +4158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3302,27 +4168,27 @@
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
     <col min="12" max="12" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="21" t="s">
+      <c r="A1" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3342,20 +4208,20 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="22" t="s">
-        <v>19</v>
+      <c r="G2" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3374,20 +4240,20 @@
       <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="22">
         <v>95.5</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="22">
         <v>67.2</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="22">
+        <v>27.299999999999997</v>
+      </c>
+      <c r="K3" s="22">
         <v>4.1000000000000005</v>
-      </c>
-      <c r="K3" s="24">
-        <v>27.299999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3406,20 +4272,20 @@
       <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="22">
         <v>82.300000000000011</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="22">
         <v>39.299999999999997</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="22">
+        <v>60.300000000000004</v>
+      </c>
+      <c r="K4" s="22">
         <v>19.400000000000002</v>
-      </c>
-      <c r="K4" s="24">
-        <v>60.300000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -3438,20 +4304,20 @@
       <c r="E5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="22">
         <v>117.00000000000003</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="22">
         <v>51.499999999999993</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="22">
+        <v>97.7</v>
+      </c>
+      <c r="K5" s="22">
         <v>34.4</v>
-      </c>
-      <c r="K5" s="24">
-        <v>97.7</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -3470,20 +4336,20 @@
       <c r="E6" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="24">
+      <c r="G6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="22">
         <v>294.80000000000007</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="22">
         <v>158</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="22">
+        <v>185.3</v>
+      </c>
+      <c r="K6" s="22">
         <v>57.900000000000006</v>
-      </c>
-      <c r="K6" s="24">
-        <v>185.3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -3570,7 +4436,7 @@
       <c r="E11" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -3588,7 +4454,7 @@
       <c r="E12" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -3606,7 +4472,7 @@
       <c r="E13" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -4275,7 +5141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4283,413 +5149,413 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="25"/>
       <c r="I2">
         <f t="shared" ref="I2:N5" ca="1" si="0">RAND()</f>
-        <v>0.48176569623943455</v>
+        <v>0.1200098697628279</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26951830788963327</v>
+        <v>0.99941505304699063</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87415131933416279</v>
+        <v>0.33238329441786285</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57398289552725368</v>
+        <v>0.50935374906320963</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8975318262670848E-2</v>
+        <v>0.43374151260716243</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17615264655711538</v>
+        <v>0.78480884247246463</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49448276072561581</v>
+        <v>6.1779982427113578E-2</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5759425961584119E-2</v>
+        <v>0.11359390354749566</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9486524487835607</v>
+        <v>0.45161976460862163</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41816335639655933</v>
+        <v>0.5510910412790978</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71737738110940263</v>
+        <v>0.88608414121684409</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45690725529415899</v>
+        <v>0.74070843448639578</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="28"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17438427063695772</v>
+        <v>0.85629450806630725</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81982538145691086</v>
+        <v>0.90230316078515482</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5876877042457731</v>
+        <v>0.4834637563117079</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6510730919371719E-2</v>
+        <v>0.86608230987280455</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34857701433138366</v>
+        <v>0.280284896790718</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99876777993196986</v>
+        <v>0.82991252940768745</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21724113458373739</v>
+        <v>0.74472631567722714</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16280378617517177</v>
+        <v>9.9524787443150964E-2</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1319733260397533E-2</v>
+        <v>0.62328821787698097</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86270757631290851</v>
+        <v>0.30523697689060403</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90215094508329596</v>
+        <v>0.32246177709537016</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57452815477257535</v>
+        <v>0.7046349837130188</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="I7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="O7" s="19"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+      <c r="I7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="O7" s="17"/>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="8"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="12"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="10"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="14"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="12"/>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="12"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="10"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="14"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="12"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="12"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="14"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="12"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="12"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="14"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="12"/>
     </row>
     <row r="18" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="12"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="14"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="12"/>
     </row>
     <row r="20" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="18"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="16"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B22" s="20" t="s">
-        <v>21</v>
+      <c r="B22" s="18" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
-        <v>27</v>
+      <c r="B25" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="34"/>
+      <c r="B26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D27" s="34"/>
+      <c r="D27" s="32"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>28</v>
+      <c r="B28" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>28</v>
+      <c r="B29" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>28</v>
+      <c r="B30" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="19" t="s">
-        <v>26</v>
+      <c r="B33" s="17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="19" t="s">
-        <v>29</v>
+      <c r="B34" s="17" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5791,93 +6657,113 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="5" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
+      <c r="A1" s="20" t="s">
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>4</v>
+      </c>
+      <c r="B2" s="22">
+        <v>26.890000000000004</v>
+      </c>
+      <c r="C2" s="22">
+        <v>1.5129999999999999</v>
+      </c>
+      <c r="D2" s="22">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>6</v>
+      </c>
+      <c r="B3" s="22">
+        <v>20.016666666666666</v>
+      </c>
+      <c r="C3" s="22">
+        <v>2.62</v>
+      </c>
+      <c r="D3" s="22">
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>8</v>
+      </c>
+      <c r="B4" s="22">
+        <v>15.161538461538463</v>
+      </c>
+      <c r="C4" s="22">
+        <v>3.17</v>
+      </c>
+      <c r="D4" s="22">
+        <v>5.4240000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>19.900000000000002</v>
-      </c>
-      <c r="C2" s="1">
-        <v>14.100000000000001</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>23.5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>11.5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>17.399999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44.6</v>
-      </c>
-      <c r="C4" s="1">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="D4" s="1">
-        <v>37.299999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="1">
-        <v>88</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45</v>
-      </c>
-      <c r="D5" s="1">
-        <v>60.199999999999996</v>
+      <c r="B5" s="22">
+        <v>20.210344827586205</v>
+      </c>
+      <c r="C5" s="22">
+        <v>1.5129999999999999</v>
+      </c>
+      <c r="D5" s="22">
+        <v>5.4240000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="4"/>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G7" s="4"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/loadExample.xlsx
+++ b/inst/loadExample.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24525" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24525" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IrisSample" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,8 +229,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="58">
     <border>
       <left/>
       <right/>
@@ -398,12 +404,559 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="6"/>
+      </right>
+      <top style="medium">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="7" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="7" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="7" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="7" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </left>
+      <right style="medium">
+        <color theme="7" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </right>
+      <top style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color theme="5" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="9" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color theme="9" tint="-0.249977111117893"/>
+      </right>
+      <top style="mediumDashed">
+        <color theme="9" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color theme="9" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -463,6 +1016,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -770,11 +1364,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179402928"/>
-        <c:axId val="179403488"/>
+        <c:axId val="177272784"/>
+        <c:axId val="177273328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179402928"/>
+        <c:axId val="177272784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,12 +1424,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179403488"/>
+        <c:crossAx val="177273328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179403488"/>
+        <c:axId val="177273328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -892,7 +1486,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179402928"/>
+        <c:crossAx val="177272784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1218,11 +1812,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="179407408"/>
-        <c:axId val="179407968"/>
+        <c:axId val="174339696"/>
+        <c:axId val="174340256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="179407408"/>
+        <c:axId val="174339696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1265,7 +1859,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179407968"/>
+        <c:crossAx val="174340256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1273,7 +1867,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179407968"/>
+        <c:axId val="174340256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1324,7 +1918,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179407408"/>
+        <c:crossAx val="174339696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1338,7 +1932,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4158,7 +4751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5139,9 +5732,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q34"/>
+  <dimension ref="B2:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5156,27 +5749,27 @@
       <c r="F2" s="25"/>
       <c r="I2">
         <f t="shared" ref="I2:N5" ca="1" si="0">RAND()</f>
-        <v>0.1200098697628279</v>
+        <v>2.1211775296413049E-2</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99941505304699063</v>
+        <v>0.36238269284756286</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33238329441786285</v>
+        <v>0.4179348466232885</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50935374906320963</v>
+        <v>1.9957991471349912E-3</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43374151260716243</v>
+        <v>0.27074290538522572</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78480884247246463</v>
+        <v>0.2649840322391942</v>
       </c>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
@@ -5187,27 +5780,27 @@
       <c r="F3" s="28"/>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1779982427113578E-2</v>
+        <v>0.54173332264029783</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11359390354749566</v>
+        <v>0.38878100760088752</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45161976460862163</v>
+        <v>0.79808537660228029</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5510910412790978</v>
+        <v>0.55660883724632737</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88608414121684409</v>
+        <v>0.66701293339221501</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74070843448639578</v>
+        <v>0.14532555363434596</v>
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
@@ -5218,27 +5811,27 @@
       <c r="F4" s="28"/>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85629450806630725</v>
+        <v>9.5693119051864062E-2</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90230316078515482</v>
+        <v>0.20964299765376693</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4834637563117079</v>
+        <v>0.86796587246200652</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86608230987280455</v>
+        <v>2.1426862731514396E-2</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.280284896790718</v>
+        <v>0.71629735634319103</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82991252940768745</v>
+        <v>0.76458163284334435</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
@@ -5249,27 +5842,27 @@
       <c r="F5" s="28"/>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74472631567722714</v>
+        <v>0.12078568149512847</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9524787443150964E-2</v>
+        <v>0.60831876756458547</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62328821787698097</v>
+        <v>0.98215511252064946</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30523697689060403</v>
+        <v>0.19344029870818413</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32246177709537016</v>
+        <v>0.32872290981933239</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7046349837130188</v>
+        <v>0.15638833007121067</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
@@ -5530,33 +6123,174 @@
       </c>
       <c r="D26" s="32"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D27" s="32"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="65"/>
+    </row>
+    <row r="29" spans="2:17" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D29" s="66"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="67"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D30" s="66"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="67"/>
+    </row>
+    <row r="31" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="66"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="67"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D32" s="66"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="58"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="67"/>
+    </row>
+    <row r="33" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D33" s="66"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="58"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="67"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="17" t="s">
         <v>25</v>
       </c>
+      <c r="D34" s="66"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="67"/>
+    </row>
+    <row r="35" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="66"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="67"/>
+    </row>
+    <row r="36" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="68"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="69"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="69"/>
+      <c r="M36" s="69"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="70"/>
+    </row>
+    <row r="37" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="71"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
+      <c r="G38" s="72"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="3">
